--- a/DualReporter_example_data.xlsx
+++ b/DualReporter_example_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Drive\DualReporterPipeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joachim/surfdrive/Shiny-project/dual-luciferase/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC327EE-40C7-9048-A9DA-185EA9765A31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="48" windowWidth="22680" windowHeight="9288" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="27240" windowHeight="14780" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dual Luciferase Reporter Assa.." sheetId="1" r:id="rId1"/>
@@ -17,6 +18,7 @@
     <sheet name="Results By Well" sheetId="3" r:id="rId3"/>
     <sheet name="firefly" sheetId="4" r:id="rId4"/>
     <sheet name="renilla" sheetId="5" r:id="rId5"/>
+    <sheet name="conditions" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Application_Name">'Dual Luciferase Reporter Assa..'!$D$10</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="156">
   <si>
     <t>Result: Dual Luciferase Reporter Assay System ELIAS 2019.02.12 02:59:36</t>
   </si>
@@ -467,17 +469,59 @@
   </si>
   <si>
     <t>HEK293T cells</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Column_1</t>
+  </si>
+  <si>
+    <t>Column_2</t>
+  </si>
+  <si>
+    <t>Column_3</t>
+  </si>
+  <si>
+    <t>Column_4</t>
+  </si>
+  <si>
+    <t>Column_5</t>
+  </si>
+  <si>
+    <t>Column_6</t>
+  </si>
+  <si>
+    <t>Column_7</t>
+  </si>
+  <si>
+    <t>Column_8</t>
+  </si>
+  <si>
+    <t>Column_9</t>
+  </si>
+  <si>
+    <t>Column_10</t>
+  </si>
+  <si>
+    <t>Column_11</t>
+  </si>
+  <si>
+    <t>Column_12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +593,13 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -753,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,6 +1008,10 @@
     <xf numFmtId="2" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -966,12 +1021,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1003,7 +1055,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1050,7 +1108,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1097,7 +1161,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4"/>
+        <xdr:cNvPr id="3" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1128,9 +1198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1168,7 +1238,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1203,6 +1273,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1238,9 +1325,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1413,84 +1517,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N262"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="0.77734375" customWidth="1"/>
-    <col min="4" max="4" width="84.5546875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="0.83203125" customWidth="1"/>
+    <col min="4" max="4" width="84.5" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="17"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="73"/>
-      <c r="D2" s="74" t="s">
+      <c r="B2" s="75"/>
+      <c r="D2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-    </row>
-    <row r="3" spans="1:14" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+    </row>
+    <row r="3" spans="1:14" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-    </row>
-    <row r="4" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+    </row>
+    <row r="4" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="73"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-    </row>
-    <row r="5" spans="1:14" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="75"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+    </row>
+    <row r="5" spans="1:14" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="17"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:14" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="36" t="s">
         <v>7</v>
@@ -1510,13 +1614,13 @@
         <v>43508.124756944446</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="36"/>
       <c r="C9" s="30"/>
       <c r="D9" s="27"/>
     </row>
-    <row r="10" spans="1:14" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="36" t="s">
         <v>11</v>
@@ -1536,7 +1640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="36" t="s">
         <v>6</v>
@@ -1546,7 +1650,7 @@
         <v>9111000078</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="36" t="s">
         <v>10</v>
@@ -1556,7 +1660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="36" t="s">
         <v>8</v>
@@ -1566,32 +1670,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="36"/>
       <c r="C15" s="30"/>
       <c r="D15" s="27"/>
     </row>
-    <row r="16" spans="1:14" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="36"/>
       <c r="C16" s="30"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="1:4" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="36"/>
       <c r="C17" s="30"/>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:4" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="17"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="17" t="s">
         <v>12</v>
@@ -1600,1217 +1704,1217 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="17"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="17"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="17"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="17"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="17"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="17"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="17"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="17"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="17"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="17"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="17"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="17"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="17"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="17"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="17"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="17"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="17"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="17"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="17"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="17"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="17"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="17"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="17"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="17"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" s="17"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="17"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="17"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="17"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="17"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="17"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="17"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="17"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="17"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="17"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="17"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="17"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="17"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="17"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="17"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="17"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="17"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="17"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="17"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="17"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="17"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="17"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="17"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="17"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="17"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="17"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="17"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
       <c r="B72" s="17"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="17"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="17"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14"/>
       <c r="B75" s="17"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="17"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="17"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
       <c r="B78" s="17"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="17"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
       <c r="B80" s="17"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="17"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
       <c r="B82" s="17"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
       <c r="B83" s="17"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
       <c r="B84" s="17"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14"/>
       <c r="B85" s="17"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
       <c r="B86" s="17"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="17"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14"/>
       <c r="B88" s="17"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="17"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
       <c r="B90" s="17"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="17"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="17"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="17"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14"/>
       <c r="B94" s="17"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="17"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="17"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="17"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="17"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
       <c r="B99" s="17"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
       <c r="B100" s="17"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
       <c r="B101" s="17"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
       <c r="B102" s="17"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14"/>
       <c r="B103" s="17"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14"/>
       <c r="B104" s="17"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="17"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
       <c r="B106" s="17"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14"/>
       <c r="B107" s="17"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
       <c r="B108" s="17"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14"/>
       <c r="B109" s="17"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14"/>
       <c r="B110" s="17"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14"/>
       <c r="B111" s="17"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
       <c r="B112" s="17"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14"/>
       <c r="B113" s="17"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14"/>
       <c r="B114" s="17"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
       <c r="B115" s="17"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14"/>
       <c r="B116" s="17"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14"/>
       <c r="B117" s="17"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14"/>
       <c r="B118" s="17"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14"/>
       <c r="B119" s="17"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
       <c r="B120" s="17"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14"/>
       <c r="B121" s="17"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14"/>
       <c r="B122" s="17"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14"/>
       <c r="B123" s="17"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14"/>
       <c r="B124" s="17"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14"/>
       <c r="B125" s="17"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14"/>
       <c r="B126" s="17"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14"/>
       <c r="B127" s="17"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14"/>
       <c r="B128" s="17"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14"/>
       <c r="B129" s="17"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14"/>
       <c r="B130" s="17"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14"/>
       <c r="B131" s="17"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14"/>
       <c r="B132" s="17"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14"/>
       <c r="B133" s="17"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14"/>
       <c r="B134" s="17"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14"/>
       <c r="B135" s="17"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14"/>
       <c r="B136" s="17"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14"/>
       <c r="B137" s="17"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14"/>
       <c r="B138" s="17"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14"/>
       <c r="B139" s="17"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14"/>
       <c r="B140" s="17"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14"/>
       <c r="B141" s="17"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14"/>
       <c r="B142" s="17"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14"/>
       <c r="B143" s="17"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14"/>
       <c r="B144" s="17"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14"/>
       <c r="B145" s="17"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14"/>
       <c r="B146" s="17"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14"/>
       <c r="B147" s="17"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
       <c r="B148" s="17"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
       <c r="B149" s="17"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
       <c r="B150" s="17"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14"/>
       <c r="B151" s="17"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="14"/>
       <c r="B152" s="17"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="14"/>
       <c r="B153" s="17"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14"/>
       <c r="B154" s="17"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14"/>
       <c r="B155" s="17"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14"/>
       <c r="B156" s="17"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14"/>
       <c r="B157" s="17"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14"/>
       <c r="B158" s="17"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="14"/>
       <c r="B159" s="17"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14"/>
       <c r="B160" s="17"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14"/>
       <c r="B161" s="17"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="14"/>
       <c r="B162" s="17"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14"/>
       <c r="B163" s="17"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14"/>
       <c r="B164" s="17"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14"/>
       <c r="B165" s="17"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14"/>
       <c r="B166" s="17"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="14"/>
       <c r="B167" s="17"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14"/>
       <c r="B168" s="17"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="14"/>
       <c r="B169" s="17"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="14"/>
       <c r="B170" s="17"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="14"/>
       <c r="B171" s="17"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="14"/>
       <c r="B172" s="17"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="14"/>
       <c r="B173" s="17"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="14"/>
       <c r="B174" s="17"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="14"/>
       <c r="B175" s="17"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="14"/>
       <c r="B176" s="17"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14"/>
       <c r="B177" s="17"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="14"/>
       <c r="B178" s="17"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="14"/>
       <c r="B179" s="17"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="14"/>
       <c r="B180" s="17"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="14"/>
       <c r="B181" s="17"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14"/>
       <c r="B182" s="17"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="14"/>
       <c r="B183" s="17"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14"/>
       <c r="B184" s="17"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14"/>
       <c r="B185" s="17"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="14"/>
       <c r="B186" s="17"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="14"/>
       <c r="B187" s="17"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="14"/>
       <c r="B188" s="17"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14"/>
       <c r="B189" s="17"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="14"/>
       <c r="B190" s="17"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="14"/>
       <c r="B191" s="17"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="14"/>
       <c r="B192" s="17"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14"/>
       <c r="B193" s="17"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="14"/>
       <c r="B194" s="17"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="14"/>
       <c r="B195" s="17"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="14"/>
       <c r="B196" s="17"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="14"/>
       <c r="B197" s="17"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="14"/>
       <c r="B198" s="17"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="14"/>
       <c r="B199" s="17"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="14"/>
       <c r="B200" s="17"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14"/>
       <c r="B201" s="17"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="14"/>
       <c r="B202" s="17"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14"/>
       <c r="B203" s="17"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14"/>
       <c r="B204" s="17"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14"/>
       <c r="B205" s="17"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14"/>
       <c r="B206" s="17"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14"/>
       <c r="B207" s="17"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="14"/>
       <c r="B208" s="17"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="14"/>
       <c r="B209" s="17"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="14"/>
       <c r="B210" s="17"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="14"/>
       <c r="B211" s="17"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="14"/>
       <c r="B212" s="17"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="14"/>
       <c r="B213" s="17"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="14"/>
       <c r="B214" s="17"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="14"/>
       <c r="B215" s="17"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="14"/>
       <c r="B216" s="17"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="14"/>
       <c r="B217" s="17"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="14"/>
       <c r="B218" s="17"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="14"/>
       <c r="B219" s="17"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="14"/>
       <c r="B220" s="17"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="14"/>
       <c r="B221" s="17"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="14"/>
       <c r="B222" s="17"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="14"/>
       <c r="B223" s="17"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="14"/>
       <c r="B224" s="17"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="14"/>
       <c r="B225" s="17"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="14"/>
       <c r="B226" s="17"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="14"/>
       <c r="B227" s="17"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="14"/>
       <c r="B228" s="17"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="14"/>
       <c r="B229" s="17"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="14"/>
       <c r="B230" s="17"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="14"/>
       <c r="B231" s="17"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="14"/>
       <c r="B232" s="17"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="14"/>
       <c r="B233" s="17"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="14"/>
       <c r="B234" s="17"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="14"/>
       <c r="B235" s="17"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="14"/>
       <c r="B236" s="17"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="14"/>
       <c r="B237" s="17"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="14"/>
       <c r="B238" s="17"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="14"/>
       <c r="B239" s="17"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="14"/>
       <c r="B240" s="17"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="14"/>
       <c r="B241" s="17"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="14"/>
       <c r="B242" s="17"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="14"/>
       <c r="B243" s="17"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="14"/>
       <c r="B244" s="17"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="14"/>
       <c r="B245" s="17"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="14"/>
       <c r="B246" s="17"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="14"/>
       <c r="B247" s="17"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="14"/>
       <c r="B248" s="17"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="14"/>
       <c r="B249" s="17"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="14"/>
       <c r="B250" s="17"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="14"/>
       <c r="B251" s="17"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="14"/>
       <c r="B252" s="17"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="14"/>
       <c r="B253" s="17"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="14"/>
       <c r="B254" s="17"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="14"/>
       <c r="B255" s="17"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="14"/>
       <c r="B256" s="17"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="14"/>
       <c r="B257" s="17"/>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="14"/>
       <c r="B258" s="17"/>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="14"/>
       <c r="B259" s="17"/>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="14"/>
       <c r="B260" s="17"/>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="14"/>
       <c r="B261" s="17"/>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="14"/>
       <c r="B262" s="17"/>
       <c r="D262" s="4"/>
@@ -2829,93 +2933,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="0.77734375" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="0.83203125" customWidth="1"/>
     <col min="4" max="4" width="31" style="25" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="17"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="73"/>
-      <c r="D2" s="74" t="s">
+      <c r="B2" s="75"/>
+      <c r="D2" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="B3" s="75"/>
+      <c r="D3" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="73"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>140</v>
       </c>
@@ -2924,26 +3027,26 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="17"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -2952,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="17" t="s">
         <v>22</v>
@@ -2961,7 +3064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
         <v>23</v>
@@ -2970,19 +3073,19 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="17"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="17" t="s">
         <v>25</v>
@@ -2991,19 +3094,19 @@
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="17" t="s">
         <v>27</v>
@@ -3012,7 +3115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="17" t="s">
         <v>29</v>
@@ -3021,7 +3124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="17" t="s">
         <v>30</v>
@@ -3066,7 +3169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="17"/>
       <c r="D21" s="16"/>
@@ -3082,17 +3185,17 @@
       <c r="H21" s="23">
         <v>1498000</v>
       </c>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-    </row>
-    <row r="22" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+    </row>
+    <row r="22" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="D22" s="16"/>
@@ -3108,17 +3211,17 @@
       <c r="H22" s="54">
         <v>1308000</v>
       </c>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-    </row>
-    <row r="23" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+    </row>
+    <row r="23" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="17"/>
       <c r="D23" s="16"/>
@@ -3134,17 +3237,17 @@
       <c r="H23" s="45">
         <v>1353000</v>
       </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-    </row>
-    <row r="24" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+    </row>
+    <row r="24" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="17"/>
       <c r="D24" s="4"/>
@@ -3160,113 +3263,113 @@
       <c r="H24" s="49">
         <v>1371000</v>
       </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-    </row>
-    <row r="25" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+    </row>
+    <row r="25" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="17"/>
       <c r="D25" s="4"/>
       <c r="E25" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
       <c r="R25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="17"/>
       <c r="D26" s="4"/>
       <c r="E26" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
       <c r="R26" s="30"/>
     </row>
-    <row r="27" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="17"/>
       <c r="D27" s="4"/>
       <c r="E27" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
       <c r="R27" s="30"/>
     </row>
-    <row r="28" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="17"/>
       <c r="D28" s="4"/>
       <c r="E28" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
       <c r="R28" s="30"/>
     </row>
-    <row r="29" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="17"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="17"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="17" t="s">
         <v>21</v>
@@ -3275,7 +3378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="17" t="s">
         <v>22</v>
@@ -3284,7 +3387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="17" t="s">
         <v>23</v>
@@ -3293,19 +3396,19 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="17"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="17"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="17" t="s">
         <v>25</v>
@@ -3314,19 +3417,19 @@
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="17"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="17"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="17" t="s">
         <v>27</v>
@@ -3335,7 +3438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="17" t="s">
         <v>29</v>
@@ -3344,7 +3447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="17" t="s">
         <v>30</v>
@@ -3389,7 +3492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="17"/>
       <c r="D42" s="4"/>
@@ -3405,17 +3508,17 @@
       <c r="H42" s="42">
         <v>2313000</v>
       </c>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-    </row>
-    <row r="43" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+    </row>
+    <row r="43" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="17"/>
       <c r="D43" s="4"/>
@@ -3431,17 +3534,17 @@
       <c r="H43" s="48">
         <v>2446000</v>
       </c>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="76"/>
-    </row>
-    <row r="44" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+    </row>
+    <row r="44" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="17"/>
       <c r="D44" s="4"/>
@@ -3457,17 +3560,17 @@
       <c r="H44" s="39">
         <v>2523000</v>
       </c>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-    </row>
-    <row r="45" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+    </row>
+    <row r="45" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" s="17"/>
       <c r="D45" s="4"/>
@@ -3483,1136 +3586,1136 @@
       <c r="H45" s="53">
         <v>2336000</v>
       </c>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-    </row>
-    <row r="46" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+    </row>
+    <row r="46" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="17"/>
       <c r="D46" s="4"/>
       <c r="E46" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
       <c r="R46" s="30"/>
     </row>
-    <row r="47" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="17"/>
       <c r="D47" s="4"/>
       <c r="E47" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
       <c r="R47" s="30"/>
     </row>
-    <row r="48" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="17"/>
       <c r="D48" s="4"/>
       <c r="E48" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="76"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
       <c r="R48" s="30"/>
     </row>
-    <row r="49" spans="1:18" s="15" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="17"/>
       <c r="D49" s="4"/>
       <c r="E49" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
       <c r="R49" s="30"/>
     </row>
-    <row r="50" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="17"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="17"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="17"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="17"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="17"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="17"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="17"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="17"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="17"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="17"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="17"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="17"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="17"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="17"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="17"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="17"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="17"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="17"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="17"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="17"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="17"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="17"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
       <c r="B72" s="17"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="17"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="17"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14"/>
       <c r="B75" s="17"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="17"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="17"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
       <c r="B78" s="17"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="17"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
       <c r="B80" s="17"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="17"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
       <c r="B82" s="17"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
       <c r="B83" s="17"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
       <c r="B84" s="17"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14"/>
       <c r="B85" s="17"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
       <c r="B86" s="17"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="17"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14"/>
       <c r="B88" s="17"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="17"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
       <c r="B90" s="17"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="17"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="17"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="17"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14"/>
       <c r="B94" s="17"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="17"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="17"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="17"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="17"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
       <c r="B99" s="17"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
       <c r="B100" s="17"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
       <c r="B101" s="17"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
       <c r="B102" s="17"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14"/>
       <c r="B103" s="17"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14"/>
       <c r="B104" s="17"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="17"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
       <c r="B106" s="17"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14"/>
       <c r="B107" s="17"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
       <c r="B108" s="17"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14"/>
       <c r="B109" s="17"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14"/>
       <c r="B110" s="17"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14"/>
       <c r="B111" s="17"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
       <c r="B112" s="17"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14"/>
       <c r="B113" s="17"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14"/>
       <c r="B114" s="17"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
       <c r="B115" s="17"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14"/>
       <c r="B116" s="17"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14"/>
       <c r="B117" s="17"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14"/>
       <c r="B118" s="17"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14"/>
       <c r="B119" s="17"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
       <c r="B120" s="17"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14"/>
       <c r="B121" s="17"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14"/>
       <c r="B122" s="17"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14"/>
       <c r="B123" s="17"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14"/>
       <c r="B124" s="17"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14"/>
       <c r="B125" s="17"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14"/>
       <c r="B126" s="17"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14"/>
       <c r="B127" s="17"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14"/>
       <c r="B128" s="17"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14"/>
       <c r="B129" s="17"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14"/>
       <c r="B130" s="17"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14"/>
       <c r="B131" s="17"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14"/>
       <c r="B132" s="17"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14"/>
       <c r="B133" s="17"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14"/>
       <c r="B134" s="17"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14"/>
       <c r="B135" s="17"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14"/>
       <c r="B136" s="17"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14"/>
       <c r="B137" s="17"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14"/>
       <c r="B138" s="17"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14"/>
       <c r="B139" s="17"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14"/>
       <c r="B140" s="17"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14"/>
       <c r="B141" s="17"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14"/>
       <c r="B142" s="17"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14"/>
       <c r="B143" s="17"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14"/>
       <c r="B144" s="17"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14"/>
       <c r="B145" s="17"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14"/>
       <c r="B146" s="17"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14"/>
       <c r="B147" s="17"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
       <c r="B148" s="17"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
       <c r="B149" s="17"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
       <c r="B150" s="17"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14"/>
       <c r="B151" s="17"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="14"/>
       <c r="B152" s="17"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="14"/>
       <c r="B153" s="17"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14"/>
       <c r="B154" s="17"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14"/>
       <c r="B155" s="17"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14"/>
       <c r="B156" s="17"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14"/>
       <c r="B157" s="17"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14"/>
       <c r="B158" s="17"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="14"/>
       <c r="B159" s="17"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14"/>
       <c r="B160" s="17"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14"/>
       <c r="B161" s="17"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="14"/>
       <c r="B162" s="17"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14"/>
       <c r="B163" s="17"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14"/>
       <c r="B164" s="17"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14"/>
       <c r="B165" s="17"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14"/>
       <c r="B166" s="17"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="14"/>
       <c r="B167" s="17"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14"/>
       <c r="B168" s="17"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="14"/>
       <c r="B169" s="17"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="14"/>
       <c r="B170" s="17"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="14"/>
       <c r="B171" s="17"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="14"/>
       <c r="B172" s="17"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="14"/>
       <c r="B173" s="17"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="14"/>
       <c r="B174" s="17"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="14"/>
       <c r="B175" s="17"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="14"/>
       <c r="B176" s="17"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14"/>
       <c r="B177" s="17"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="14"/>
       <c r="B178" s="17"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="14"/>
       <c r="B179" s="17"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="14"/>
       <c r="B180" s="17"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="14"/>
       <c r="B181" s="17"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14"/>
       <c r="B182" s="17"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="14"/>
       <c r="B183" s="17"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14"/>
       <c r="B184" s="17"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14"/>
       <c r="B185" s="17"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="14"/>
       <c r="B186" s="17"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="14"/>
       <c r="B187" s="17"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="14"/>
       <c r="B188" s="17"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14"/>
       <c r="B189" s="17"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="14"/>
       <c r="B190" s="17"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="14"/>
       <c r="B191" s="17"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="14"/>
       <c r="B192" s="17"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14"/>
       <c r="B193" s="17"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="14"/>
       <c r="B194" s="17"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="14"/>
       <c r="B195" s="17"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="14"/>
       <c r="B196" s="17"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="14"/>
       <c r="B197" s="17"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="14"/>
       <c r="B198" s="17"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="14"/>
       <c r="B199" s="17"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="14"/>
       <c r="B200" s="17"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14"/>
       <c r="B201" s="17"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="14"/>
       <c r="B202" s="17"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14"/>
       <c r="B203" s="17"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14"/>
       <c r="B204" s="17"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14"/>
       <c r="B205" s="17"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14"/>
       <c r="B206" s="17"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14"/>
       <c r="B207" s="17"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="14"/>
       <c r="B208" s="17"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="14"/>
       <c r="B209" s="17"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="14"/>
       <c r="B210" s="17"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="14"/>
       <c r="B211" s="17"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="14"/>
       <c r="B212" s="17"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="14"/>
       <c r="B213" s="17"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="14"/>
       <c r="B214" s="17"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="14"/>
       <c r="B215" s="17"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="14"/>
       <c r="B216" s="17"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="14"/>
       <c r="B217" s="17"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="14"/>
       <c r="B218" s="17"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="14"/>
       <c r="B219" s="17"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="14"/>
       <c r="B220" s="17"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="14"/>
       <c r="B221" s="17"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="14"/>
       <c r="B222" s="17"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="14"/>
       <c r="B223" s="17"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="14"/>
       <c r="B224" s="17"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="14"/>
       <c r="B225" s="17"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="14"/>
       <c r="B226" s="17"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="14"/>
       <c r="B227" s="17"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="14"/>
       <c r="B228" s="17"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="14"/>
       <c r="B229" s="17"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="14"/>
       <c r="B230" s="17"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="14"/>
       <c r="B231" s="17"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="14"/>
       <c r="B232" s="17"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="14"/>
       <c r="B233" s="17"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="14"/>
       <c r="B234" s="17"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="14"/>
       <c r="B235" s="17"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="14"/>
       <c r="B236" s="17"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="14"/>
       <c r="B237" s="17"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="14"/>
       <c r="B238" s="17"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="14"/>
       <c r="B239" s="17"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="14"/>
       <c r="B240" s="17"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="14"/>
       <c r="B241" s="17"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="14"/>
       <c r="B242" s="17"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="14"/>
       <c r="B243" s="17"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="14"/>
       <c r="B244" s="17"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="14"/>
       <c r="B245" s="17"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="14"/>
       <c r="B246" s="17"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="14"/>
       <c r="B247" s="17"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="14"/>
       <c r="B248" s="17"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="14"/>
       <c r="B249" s="17"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="14"/>
       <c r="B250" s="17"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="14"/>
       <c r="B251" s="17"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="14"/>
       <c r="B252" s="17"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="14"/>
       <c r="B253" s="17"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="14"/>
       <c r="B254" s="17"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="14"/>
       <c r="B255" s="17"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="14"/>
       <c r="B256" s="17"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="14"/>
       <c r="B257" s="17"/>
       <c r="C257" s="15"/>
@@ -4631,94 +4734,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="0.77734375" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="0.83203125" customWidth="1"/>
     <col min="4" max="4" width="31" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="17"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="73"/>
-      <c r="D2" s="74" t="s">
+      <c r="B2" s="75"/>
+      <c r="D2" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="B3" s="75"/>
+      <c r="D3" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="73"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="17"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
@@ -4733,7 +4836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>42</v>
@@ -4748,7 +4851,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="17" t="s">
         <v>42</v>
@@ -4763,12 +4866,12 @@
         <v>2391000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="17"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
@@ -4783,7 +4886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
         <v>42</v>
@@ -4798,7 +4901,7 @@
         <v>1639000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="17" t="s">
         <v>42</v>
@@ -4813,12 +4916,12 @@
         <v>2219000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>44</v>
       </c>
@@ -4833,7 +4936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
         <v>42</v>
@@ -4848,7 +4951,7 @@
         <v>1498000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="17" t="s">
         <v>42</v>
@@ -4863,12 +4966,12 @@
         <v>2313000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="17"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>45</v>
       </c>
@@ -4883,7 +4986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="17" t="s">
         <v>42</v>
@@ -4898,7 +5001,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="17" t="s">
         <v>42</v>
@@ -4913,12 +5016,12 @@
         <v>1580000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -4933,7 +5036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="17" t="s">
         <v>42</v>
@@ -4948,7 +5051,7 @@
         <v>719800</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="17" t="s">
         <v>42</v>
@@ -4963,12 +5066,12 @@
         <v>2217000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="17"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>47</v>
       </c>
@@ -4983,7 +5086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="17" t="s">
         <v>42</v>
@@ -4998,7 +5101,7 @@
         <v>1464000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="17" t="s">
         <v>42</v>
@@ -5013,12 +5116,12 @@
         <v>1843000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="17"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>48</v>
       </c>
@@ -5033,7 +5136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="17" t="s">
         <v>42</v>
@@ -5048,7 +5151,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="17" t="s">
         <v>42</v>
@@ -5063,12 +5166,12 @@
         <v>930400</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="17"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>49</v>
       </c>
@@ -5083,7 +5186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="17" t="s">
         <v>42</v>
@@ -5098,7 +5201,7 @@
         <v>1045000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="17" t="s">
         <v>42</v>
@@ -5113,12 +5216,12 @@
         <v>1355000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="17"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>50</v>
       </c>
@@ -5133,7 +5236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="17" t="s">
         <v>42</v>
@@ -5148,7 +5251,7 @@
         <v>503400</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="17" t="s">
         <v>42</v>
@@ -5163,12 +5266,12 @@
         <v>698800</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="17"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>51</v>
       </c>
@@ -5183,7 +5286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="17" t="s">
         <v>42</v>
@@ -5198,7 +5301,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" s="17" t="s">
         <v>42</v>
@@ -5213,12 +5316,12 @@
         <v>680200</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="17"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>52</v>
       </c>
@@ -5233,7 +5336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="17" t="s">
         <v>42</v>
@@ -5248,7 +5351,7 @@
         <v>291400</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="17" t="s">
         <v>42</v>
@@ -5263,12 +5366,12 @@
         <v>786600</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="17"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>53</v>
       </c>
@@ -5283,7 +5386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="17" t="s">
         <v>42</v>
@@ -5298,7 +5401,7 @@
         <v>599300</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="17" t="s">
         <v>42</v>
@@ -5313,12 +5416,12 @@
         <v>588600</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="17"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>54</v>
       </c>
@@ -5333,7 +5436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="17" t="s">
         <v>42</v>
@@ -5348,7 +5451,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="17" t="s">
         <v>42</v>
@@ -5363,12 +5466,12 @@
         <v>2497000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="17"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>55</v>
       </c>
@@ -5383,7 +5486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="17" t="s">
         <v>42</v>
@@ -5398,7 +5501,7 @@
         <v>1842000</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="17" t="s">
         <v>42</v>
@@ -5413,12 +5516,12 @@
         <v>2794000</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="17"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>56</v>
       </c>
@@ -5433,7 +5536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="17" t="s">
         <v>42</v>
@@ -5448,7 +5551,7 @@
         <v>1308000</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="17" t="s">
         <v>42</v>
@@ -5463,12 +5566,12 @@
         <v>2446000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="17"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>57</v>
       </c>
@@ -5483,7 +5586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="17" t="s">
         <v>42</v>
@@ -5498,7 +5601,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="17" t="s">
         <v>42</v>
@@ -5513,12 +5616,12 @@
         <v>1955000</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="17"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>58</v>
       </c>
@@ -5533,7 +5636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
       <c r="B72" s="17" t="s">
         <v>42</v>
@@ -5548,7 +5651,7 @@
         <v>782500</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="17" t="s">
         <v>42</v>
@@ -5563,12 +5666,12 @@
         <v>2471000</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="17"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>59</v>
       </c>
@@ -5583,7 +5686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="17" t="s">
         <v>42</v>
@@ -5598,7 +5701,7 @@
         <v>1418000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="17" t="s">
         <v>42</v>
@@ -5613,12 +5716,12 @@
         <v>1919000</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
       <c r="B78" s="17"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>60</v>
       </c>
@@ -5633,7 +5736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14"/>
       <c r="B80" s="17" t="s">
         <v>42</v>
@@ -5648,7 +5751,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="17" t="s">
         <v>42</v>
@@ -5663,12 +5766,12 @@
         <v>715400</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14"/>
       <c r="B82" s="17"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>61</v>
       </c>
@@ -5683,7 +5786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
       <c r="B84" s="17" t="s">
         <v>42</v>
@@ -5698,7 +5801,7 @@
         <v>873000</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14"/>
       <c r="B85" s="17" t="s">
         <v>42</v>
@@ -5713,12 +5816,12 @@
         <v>1124000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
       <c r="B86" s="17"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>62</v>
       </c>
@@ -5733,7 +5836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14"/>
       <c r="B88" s="17" t="s">
         <v>42</v>
@@ -5748,7 +5851,7 @@
         <v>578400</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="17" t="s">
         <v>42</v>
@@ -5763,12 +5866,12 @@
         <v>844600</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
       <c r="B90" s="17"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>63</v>
       </c>
@@ -5783,7 +5886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="17" t="s">
         <v>42</v>
@@ -5798,7 +5901,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="17" t="s">
         <v>42</v>
@@ -5813,12 +5916,12 @@
         <v>742700</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14"/>
       <c r="B94" s="17"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>64</v>
       </c>
@@ -5833,7 +5936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="17" t="s">
         <v>42</v>
@@ -5848,7 +5951,7 @@
         <v>367100</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="17" t="s">
         <v>42</v>
@@ -5863,12 +5966,12 @@
         <v>1017000</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="17"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>65</v>
       </c>
@@ -5883,7 +5986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
       <c r="B100" s="17" t="s">
         <v>42</v>
@@ -5898,7 +6001,7 @@
         <v>497800</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
       <c r="B101" s="17" t="s">
         <v>42</v>
@@ -5913,12 +6016,12 @@
         <v>532300</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
       <c r="B102" s="17"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>66</v>
       </c>
@@ -5933,7 +6036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14"/>
       <c r="B104" s="17" t="s">
         <v>42</v>
@@ -5948,7 +6051,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="17" t="s">
         <v>42</v>
@@ -5963,12 +6066,12 @@
         <v>2728000</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
       <c r="B106" s="17"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
         <v>67</v>
       </c>
@@ -5983,7 +6086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
       <c r="B108" s="17" t="s">
         <v>42</v>
@@ -5998,7 +6101,7 @@
         <v>1912000</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14"/>
       <c r="B109" s="17" t="s">
         <v>42</v>
@@ -6013,12 +6116,12 @@
         <v>2723000</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14"/>
       <c r="B110" s="17"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
         <v>68</v>
       </c>
@@ -6033,7 +6136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
       <c r="B112" s="17" t="s">
         <v>42</v>
@@ -6048,7 +6151,7 @@
         <v>1353000</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14"/>
       <c r="B113" s="17" t="s">
         <v>42</v>
@@ -6063,12 +6166,12 @@
         <v>2523000</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14"/>
       <c r="B114" s="17"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
         <v>69</v>
       </c>
@@ -6083,7 +6186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14"/>
       <c r="B116" s="17" t="s">
         <v>42</v>
@@ -6098,7 +6201,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14"/>
       <c r="B117" s="17" t="s">
         <v>42</v>
@@ -6113,12 +6216,12 @@
         <v>1876000</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14"/>
       <c r="B118" s="17"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
         <v>70</v>
       </c>
@@ -6133,7 +6236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
       <c r="B120" s="17" t="s">
         <v>42</v>
@@ -6148,7 +6251,7 @@
         <v>746900</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14"/>
       <c r="B121" s="17" t="s">
         <v>42</v>
@@ -6163,12 +6266,12 @@
         <v>2616000</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14"/>
       <c r="B122" s="17"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
         <v>71</v>
       </c>
@@ -6183,7 +6286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14"/>
       <c r="B124" s="17" t="s">
         <v>42</v>
@@ -6198,7 +6301,7 @@
         <v>1720000</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14"/>
       <c r="B125" s="17" t="s">
         <v>42</v>
@@ -6213,12 +6316,12 @@
         <v>1746000</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14"/>
       <c r="B126" s="17"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
         <v>72</v>
       </c>
@@ -6233,7 +6336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14"/>
       <c r="B128" s="17" t="s">
         <v>42</v>
@@ -6248,7 +6351,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14"/>
       <c r="B129" s="17" t="s">
         <v>42</v>
@@ -6263,12 +6366,12 @@
         <v>756600</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14"/>
       <c r="B130" s="17"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
         <v>73</v>
       </c>
@@ -6283,7 +6386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14"/>
       <c r="B132" s="17" t="s">
         <v>42</v>
@@ -6298,7 +6401,7 @@
         <v>898900</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14"/>
       <c r="B133" s="17" t="s">
         <v>42</v>
@@ -6313,12 +6416,12 @@
         <v>1006000</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14"/>
       <c r="B134" s="17"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>74</v>
       </c>
@@ -6333,7 +6436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14"/>
       <c r="B136" s="17" t="s">
         <v>42</v>
@@ -6348,7 +6451,7 @@
         <v>726900</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14"/>
       <c r="B137" s="17" t="s">
         <v>42</v>
@@ -6363,12 +6466,12 @@
         <v>1113000</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14"/>
       <c r="B138" s="17"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
         <v>75</v>
       </c>
@@ -6383,7 +6486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14"/>
       <c r="B140" s="17" t="s">
         <v>42</v>
@@ -6398,7 +6501,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14"/>
       <c r="B141" s="17" t="s">
         <v>42</v>
@@ -6413,12 +6516,12 @@
         <v>710300</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14"/>
       <c r="B142" s="17"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
         <v>76</v>
       </c>
@@ -6433,7 +6536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14"/>
       <c r="B144" s="17" t="s">
         <v>42</v>
@@ -6448,7 +6551,7 @@
         <v>332500</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14"/>
       <c r="B145" s="17" t="s">
         <v>42</v>
@@ -6463,12 +6566,12 @@
         <v>978500</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14"/>
       <c r="B146" s="17"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
         <v>77</v>
       </c>
@@ -6483,7 +6586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
       <c r="B148" s="17" t="s">
         <v>42</v>
@@ -6498,7 +6601,7 @@
         <v>520100</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
       <c r="B149" s="17" t="s">
         <v>42</v>
@@ -6513,12 +6616,12 @@
         <v>536000</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
       <c r="B150" s="17"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>78</v>
       </c>
@@ -6533,7 +6636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="14"/>
       <c r="B152" s="17" t="s">
         <v>42</v>
@@ -6548,7 +6651,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="14"/>
       <c r="B153" s="17" t="s">
         <v>42</v>
@@ -6563,12 +6666,12 @@
         <v>2420000</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14"/>
       <c r="B154" s="17"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>79</v>
       </c>
@@ -6583,7 +6686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14"/>
       <c r="B156" s="17" t="s">
         <v>42</v>
@@ -6598,7 +6701,7 @@
         <v>1879000</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14"/>
       <c r="B157" s="17" t="s">
         <v>42</v>
@@ -6613,12 +6716,12 @@
         <v>2627000</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14"/>
       <c r="B158" s="17"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
         <v>80</v>
       </c>
@@ -6633,7 +6736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14"/>
       <c r="B160" s="17" t="s">
         <v>42</v>
@@ -6648,7 +6751,7 @@
         <v>1371000</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14"/>
       <c r="B161" s="17" t="s">
         <v>42</v>
@@ -6663,12 +6766,12 @@
         <v>2336000</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="14"/>
       <c r="B162" s="17"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
         <v>81</v>
       </c>
@@ -6683,7 +6786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14"/>
       <c r="B164" s="17" t="s">
         <v>42</v>
@@ -6698,7 +6801,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14"/>
       <c r="B165" s="17" t="s">
         <v>42</v>
@@ -6713,12 +6816,12 @@
         <v>1876000</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14"/>
       <c r="B166" s="17"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
         <v>82</v>
       </c>
@@ -6733,7 +6836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14"/>
       <c r="B168" s="17" t="s">
         <v>42</v>
@@ -6748,7 +6851,7 @@
         <v>707500</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="14"/>
       <c r="B169" s="17" t="s">
         <v>42</v>
@@ -6763,12 +6866,12 @@
         <v>2399000</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="14"/>
       <c r="B170" s="17"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
         <v>83</v>
       </c>
@@ -6783,7 +6886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="14"/>
       <c r="B172" s="17" t="s">
         <v>42</v>
@@ -6798,7 +6901,7 @@
         <v>1393000</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="14"/>
       <c r="B173" s="17" t="s">
         <v>42</v>
@@ -6813,12 +6916,12 @@
         <v>1836000</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="14"/>
       <c r="B174" s="17"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
         <v>84</v>
       </c>
@@ -6833,7 +6936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="14"/>
       <c r="B176" s="17" t="s">
         <v>42</v>
@@ -6848,7 +6951,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14"/>
       <c r="B177" s="17" t="s">
         <v>42</v>
@@ -6863,12 +6966,12 @@
         <v>980200</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="14"/>
       <c r="B178" s="17"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="14" t="s">
         <v>85</v>
       </c>
@@ -6883,7 +6986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="14"/>
       <c r="B180" s="17" t="s">
         <v>42</v>
@@ -6898,7 +7001,7 @@
         <v>1069000</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="14"/>
       <c r="B181" s="17" t="s">
         <v>42</v>
@@ -6913,12 +7016,12 @@
         <v>997500</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14"/>
       <c r="B182" s="17"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
         <v>86</v>
       </c>
@@ -6933,7 +7036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14"/>
       <c r="B184" s="17" t="s">
         <v>42</v>
@@ -6948,7 +7051,7 @@
         <v>531000</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14"/>
       <c r="B185" s="17" t="s">
         <v>42</v>
@@ -6963,12 +7066,12 @@
         <v>748500</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="14"/>
       <c r="B186" s="17"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
         <v>87</v>
       </c>
@@ -6983,7 +7086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="14"/>
       <c r="B188" s="17" t="s">
         <v>42</v>
@@ -6998,7 +7101,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14"/>
       <c r="B189" s="17" t="s">
         <v>42</v>
@@ -7013,12 +7116,12 @@
         <v>632300</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="14"/>
       <c r="B190" s="17"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
         <v>88</v>
       </c>
@@ -7033,7 +7136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="14"/>
       <c r="B192" s="17" t="s">
         <v>42</v>
@@ -7048,7 +7151,7 @@
         <v>299100</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14"/>
       <c r="B193" s="17" t="s">
         <v>42</v>
@@ -7063,12 +7166,12 @@
         <v>858000</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="14"/>
       <c r="B194" s="17"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
         <v>89</v>
       </c>
@@ -7083,7 +7186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="14"/>
       <c r="B196" s="17" t="s">
         <v>42</v>
@@ -7098,7 +7201,7 @@
         <v>563400</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="14"/>
       <c r="B197" s="17" t="s">
         <v>42</v>
@@ -7113,12 +7216,12 @@
         <v>540800</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="14"/>
       <c r="B198" s="17"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
         <v>90</v>
       </c>
@@ -7133,7 +7236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="14"/>
       <c r="B200" s="17" t="s">
         <v>42</v>
@@ -7148,7 +7251,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14"/>
       <c r="B201" s="17" t="s">
         <v>42</v>
@@ -7163,12 +7266,12 @@
         <v>269000</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="14"/>
       <c r="B202" s="17"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
         <v>91</v>
       </c>
@@ -7183,7 +7286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14"/>
       <c r="B204" s="17" t="s">
         <v>42</v>
@@ -7198,7 +7301,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14"/>
       <c r="B205" s="17" t="s">
         <v>42</v>
@@ -7213,12 +7316,12 @@
         <v>225800</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14"/>
       <c r="B206" s="17"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
         <v>92</v>
       </c>
@@ -7233,7 +7336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="14"/>
       <c r="B208" s="17" t="s">
         <v>42</v>
@@ -7248,7 +7351,7 @@
         <v>162500</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="14"/>
       <c r="B209" s="17" t="s">
         <v>42</v>
@@ -7263,12 +7366,12 @@
         <v>150800</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="14"/>
       <c r="B210" s="17"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
         <v>93</v>
       </c>
@@ -7283,7 +7386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="14"/>
       <c r="B212" s="17" t="s">
         <v>42</v>
@@ -7298,7 +7401,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="14"/>
       <c r="B213" s="17" t="s">
         <v>42</v>
@@ -7313,12 +7416,12 @@
         <v>202800</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="14"/>
       <c r="B214" s="17"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
         <v>94</v>
       </c>
@@ -7333,7 +7436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="14"/>
       <c r="B216" s="17" t="s">
         <v>42</v>
@@ -7348,7 +7451,7 @@
         <v>284300</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="14"/>
       <c r="B217" s="17" t="s">
         <v>42</v>
@@ -7363,12 +7466,12 @@
         <v>172700</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="14"/>
       <c r="B218" s="17"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
         <v>95</v>
       </c>
@@ -7383,7 +7486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="14"/>
       <c r="B220" s="17" t="s">
         <v>42</v>
@@ -7398,7 +7501,7 @@
         <v>538900</v>
       </c>
     </row>
-    <row r="221" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="14"/>
       <c r="B221" s="17" t="s">
         <v>42</v>
@@ -7413,12 +7516,12 @@
         <v>156100</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="14"/>
       <c r="B222" s="17"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
         <v>96</v>
       </c>
@@ -7433,7 +7536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="14"/>
       <c r="B224" s="17" t="s">
         <v>42</v>
@@ -7448,7 +7551,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="14"/>
       <c r="B225" s="17" t="s">
         <v>42</v>
@@ -7463,12 +7566,12 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="14"/>
       <c r="B226" s="17"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="14" t="s">
         <v>97</v>
       </c>
@@ -7483,7 +7586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="14"/>
       <c r="B228" s="17" t="s">
         <v>42</v>
@@ -7498,7 +7601,7 @@
         <v>74370</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="14"/>
       <c r="B229" s="17" t="s">
         <v>42</v>
@@ -7513,12 +7616,12 @@
         <v>179500</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="14"/>
       <c r="B230" s="17"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
         <v>98</v>
       </c>
@@ -7533,7 +7636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="14"/>
       <c r="B232" s="17" t="s">
         <v>42</v>
@@ -7548,7 +7651,7 @@
         <v>129800</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="14"/>
       <c r="B233" s="17" t="s">
         <v>42</v>
@@ -7563,12 +7666,12 @@
         <v>145500</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="14"/>
       <c r="B234" s="17"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="14" t="s">
         <v>99</v>
       </c>
@@ -7583,7 +7686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="14"/>
       <c r="B236" s="17" t="s">
         <v>42</v>
@@ -7598,7 +7701,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="14"/>
       <c r="B237" s="17" t="s">
         <v>42</v>
@@ -7613,12 +7716,12 @@
         <v>159700</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="14"/>
       <c r="B238" s="17"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
         <v>100</v>
       </c>
@@ -7633,7 +7736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="14"/>
       <c r="B240" s="17" t="s">
         <v>42</v>
@@ -7648,7 +7751,7 @@
         <v>240700</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="14"/>
       <c r="B241" s="17" t="s">
         <v>42</v>
@@ -7663,12 +7766,12 @@
         <v>142300</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="14"/>
       <c r="B242" s="17"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="14" t="s">
         <v>101</v>
       </c>
@@ -7683,7 +7786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="14"/>
       <c r="B244" s="17" t="s">
         <v>42</v>
@@ -7698,7 +7801,7 @@
         <v>457400</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="14"/>
       <c r="B245" s="17" t="s">
         <v>42</v>
@@ -7713,12 +7816,12 @@
         <v>117700</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="14"/>
       <c r="B246" s="17"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
         <v>102</v>
       </c>
@@ -7733,7 +7836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="14"/>
       <c r="B248" s="17" t="s">
         <v>42</v>
@@ -7748,7 +7851,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="14"/>
       <c r="B249" s="17" t="s">
         <v>42</v>
@@ -7763,12 +7866,12 @@
         <v>248300</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="14"/>
       <c r="B250" s="17"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="14" t="s">
         <v>103</v>
       </c>
@@ -7783,7 +7886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="14"/>
       <c r="B252" s="17" t="s">
         <v>42</v>
@@ -7798,7 +7901,7 @@
         <v>84630</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="14"/>
       <c r="B253" s="17" t="s">
         <v>42</v>
@@ -7813,12 +7916,12 @@
         <v>214300</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="14"/>
       <c r="B254" s="17"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="14" t="s">
         <v>104</v>
       </c>
@@ -7833,7 +7936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="14"/>
       <c r="B256" s="17" t="s">
         <v>42</v>
@@ -7848,7 +7951,7 @@
         <v>143300</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="14"/>
       <c r="B257" s="17" t="s">
         <v>42</v>
@@ -7864,8 +7967,8 @@
         <v>136100</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="26" t="s">
         <v>105</v>
       </c>
@@ -7879,7 +7982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B260" s="28" t="s">
         <v>42</v>
       </c>
@@ -7893,7 +7996,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B261" s="28" t="s">
         <v>42</v>
       </c>
@@ -7907,8 +8010,8 @@
         <v>193600</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="26" t="s">
         <v>106</v>
       </c>
@@ -7922,7 +8025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B264" s="28" t="s">
         <v>42</v>
       </c>
@@ -7936,7 +8039,7 @@
         <v>270700</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B265" s="28" t="s">
         <v>42</v>
       </c>
@@ -7950,8 +8053,8 @@
         <v>176800</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="26" t="s">
         <v>107</v>
       </c>
@@ -7965,7 +8068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B268" s="28" t="s">
         <v>42</v>
       </c>
@@ -7979,7 +8082,7 @@
         <v>552000</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B269" s="28" t="s">
         <v>42</v>
       </c>
@@ -7993,8 +8096,8 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="26" t="s">
         <v>108</v>
       </c>
@@ -8008,7 +8111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B272" s="28" t="s">
         <v>42</v>
       </c>
@@ -8022,7 +8125,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B273" s="28" t="s">
         <v>42</v>
       </c>
@@ -8036,8 +8139,8 @@
         <v>217500</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="26" t="s">
         <v>109</v>
       </c>
@@ -8051,7 +8154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B276" s="28" t="s">
         <v>42</v>
       </c>
@@ -8065,7 +8168,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B277" s="28" t="s">
         <v>42</v>
       </c>
@@ -8079,8 +8182,8 @@
         <v>134600</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="26" t="s">
         <v>110</v>
       </c>
@@ -8094,7 +8197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B280" s="28" t="s">
         <v>42</v>
       </c>
@@ -8108,7 +8211,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B281" s="28" t="s">
         <v>42</v>
       </c>
@@ -8122,8 +8225,8 @@
         <v>120700</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="26" t="s">
         <v>111</v>
       </c>
@@ -8137,7 +8240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B284" s="28" t="s">
         <v>42</v>
       </c>
@@ -8151,7 +8254,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B285" s="28" t="s">
         <v>42</v>
       </c>
@@ -8165,8 +8268,8 @@
         <v>160700</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="26" t="s">
         <v>112</v>
       </c>
@@ -8180,7 +8283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B288" s="28" t="s">
         <v>42</v>
       </c>
@@ -8194,7 +8297,7 @@
         <v>233900</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B289" s="28" t="s">
         <v>42</v>
       </c>
@@ -8208,8 +8311,8 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="26" t="s">
         <v>113</v>
       </c>
@@ -8223,7 +8326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B292" s="28" t="s">
         <v>42</v>
       </c>
@@ -8237,7 +8340,7 @@
         <v>489300</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B293" s="28" t="s">
         <v>42</v>
       </c>
@@ -8251,8 +8354,8 @@
         <v>151800</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="26" t="s">
         <v>114</v>
       </c>
@@ -8266,7 +8369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B296" s="28" t="s">
         <v>42</v>
       </c>
@@ -8280,7 +8383,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B297" s="28" t="s">
         <v>42</v>
       </c>
@@ -8294,8 +8397,8 @@
         <v>262900</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="26" t="s">
         <v>115</v>
       </c>
@@ -8309,7 +8412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B300" s="28" t="s">
         <v>42</v>
       </c>
@@ -8323,7 +8426,7 @@
         <v>91160</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B301" s="28" t="s">
         <v>42</v>
       </c>
@@ -8337,8 +8440,8 @@
         <v>192200</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="26" t="s">
         <v>116</v>
       </c>
@@ -8352,7 +8455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B304" s="28" t="s">
         <v>42</v>
       </c>
@@ -8366,7 +8469,7 @@
         <v>147400</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B305" s="28" t="s">
         <v>42</v>
       </c>
@@ -8380,8 +8483,8 @@
         <v>154200</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="26" t="s">
         <v>117</v>
       </c>
@@ -8395,7 +8498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B308" s="28" t="s">
         <v>42</v>
       </c>
@@ -8409,7 +8512,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B309" s="28" t="s">
         <v>42</v>
       </c>
@@ -8423,8 +8526,8 @@
         <v>187900</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="26" t="s">
         <v>118</v>
       </c>
@@ -8438,7 +8541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B312" s="28" t="s">
         <v>42</v>
       </c>
@@ -8452,7 +8555,7 @@
         <v>250800</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B313" s="28" t="s">
         <v>42</v>
       </c>
@@ -8466,8 +8569,8 @@
         <v>154900</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="26" t="s">
         <v>119</v>
       </c>
@@ -8481,7 +8584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B316" s="28" t="s">
         <v>42</v>
       </c>
@@ -8495,7 +8598,7 @@
         <v>529400</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B317" s="28" t="s">
         <v>42</v>
       </c>
@@ -8509,8 +8612,8 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="26" t="s">
         <v>120</v>
       </c>
@@ -8524,7 +8627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B320" s="28" t="s">
         <v>42</v>
       </c>
@@ -8538,7 +8641,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B321" s="28" t="s">
         <v>42</v>
       </c>
@@ -8552,8 +8655,8 @@
         <v>210100</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="26" t="s">
         <v>121</v>
       </c>
@@ -8567,7 +8670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B324" s="28" t="s">
         <v>42</v>
       </c>
@@ -8581,7 +8684,7 @@
         <v>63310</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B325" s="28" t="s">
         <v>42</v>
       </c>
@@ -8595,8 +8698,8 @@
         <v>159600</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="26" t="s">
         <v>122</v>
       </c>
@@ -8610,7 +8713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B328" s="28" t="s">
         <v>42</v>
       </c>
@@ -8624,7 +8727,7 @@
         <v>120500</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B329" s="28" t="s">
         <v>42</v>
       </c>
@@ -8638,8 +8741,8 @@
         <v>134200</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="26" t="s">
         <v>123</v>
       </c>
@@ -8653,7 +8756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B332" s="28" t="s">
         <v>42</v>
       </c>
@@ -8667,7 +8770,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B333" s="28" t="s">
         <v>42</v>
       </c>
@@ -8681,8 +8784,8 @@
         <v>161700</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="26" t="s">
         <v>124</v>
       </c>
@@ -8696,7 +8799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B336" s="28" t="s">
         <v>42</v>
       </c>
@@ -8710,7 +8813,7 @@
         <v>135800</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B337" s="28" t="s">
         <v>42</v>
       </c>
@@ -8724,8 +8827,8 @@
         <v>93560</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="26" t="s">
         <v>125</v>
       </c>
@@ -8739,7 +8842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B340" s="28" t="s">
         <v>42</v>
       </c>
@@ -8753,7 +8856,7 @@
         <v>439500</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B341" s="28" t="s">
         <v>42</v>
       </c>
@@ -8767,8 +8870,8 @@
         <v>130500</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="26" t="s">
         <v>126</v>
       </c>
@@ -8782,7 +8885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B344" s="28" t="s">
         <v>42</v>
       </c>
@@ -8796,7 +8899,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B345" s="28" t="s">
         <v>42</v>
       </c>
@@ -8810,8 +8913,8 @@
         <v>236100</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="26" t="s">
         <v>127</v>
       </c>
@@ -8825,7 +8928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B348" s="28" t="s">
         <v>42</v>
       </c>
@@ -8839,7 +8942,7 @@
         <v>97280</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B349" s="28" t="s">
         <v>42</v>
       </c>
@@ -8853,8 +8956,8 @@
         <v>221700</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="26" t="s">
         <v>128</v>
       </c>
@@ -8868,7 +8971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B352" s="28" t="s">
         <v>42</v>
       </c>
@@ -8882,7 +8985,7 @@
         <v>160400</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B353" s="28" t="s">
         <v>42</v>
       </c>
@@ -8896,8 +8999,8 @@
         <v>169100</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="26" t="s">
         <v>129</v>
       </c>
@@ -8911,7 +9014,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B356" s="28" t="s">
         <v>42</v>
       </c>
@@ -8925,7 +9028,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B357" s="28" t="s">
         <v>42</v>
       </c>
@@ -8939,8 +9042,8 @@
         <v>208500</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="26" t="s">
         <v>130</v>
       </c>
@@ -8954,7 +9057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B360" s="28" t="s">
         <v>42</v>
       </c>
@@ -8968,7 +9071,7 @@
         <v>265700</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B361" s="28" t="s">
         <v>42</v>
       </c>
@@ -8982,8 +9085,8 @@
         <v>180700</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="26" t="s">
         <v>131</v>
       </c>
@@ -8997,7 +9100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B364" s="28" t="s">
         <v>42</v>
       </c>
@@ -9011,7 +9114,7 @@
         <v>495900</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B365" s="28" t="s">
         <v>42</v>
       </c>
@@ -9025,8 +9128,8 @@
         <v>162800</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="26" t="s">
         <v>132</v>
       </c>
@@ -9040,7 +9143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B368" s="28" t="s">
         <v>42</v>
       </c>
@@ -9054,7 +9157,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B369" s="28" t="s">
         <v>42</v>
       </c>
@@ -9068,8 +9171,8 @@
         <v>205500</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="26" t="s">
         <v>133</v>
       </c>
@@ -9083,7 +9186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B372" s="28" t="s">
         <v>42</v>
       </c>
@@ -9097,7 +9200,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B373" s="28" t="s">
         <v>42</v>
       </c>
@@ -9111,8 +9214,8 @@
         <v>167500</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="26" t="s">
         <v>134</v>
       </c>
@@ -9126,7 +9229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B376" s="28" t="s">
         <v>42</v>
       </c>
@@ -9140,7 +9243,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B377" s="28" t="s">
         <v>42</v>
       </c>
@@ -9154,8 +9257,8 @@
         <v>133100</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="26" t="s">
         <v>135</v>
       </c>
@@ -9169,7 +9272,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B380" s="28" t="s">
         <v>42</v>
       </c>
@@ -9183,7 +9286,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B381" s="28" t="s">
         <v>42</v>
       </c>
@@ -9197,8 +9300,8 @@
         <v>178800</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="26" t="s">
         <v>136</v>
       </c>
@@ -9212,7 +9315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B384" s="28" t="s">
         <v>42</v>
       </c>
@@ -9226,7 +9329,7 @@
         <v>235100</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B385" s="28" t="s">
         <v>42</v>
       </c>
@@ -9240,8 +9343,8 @@
         <v>135100</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="26" t="s">
         <v>137</v>
       </c>
@@ -9255,7 +9358,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B388" s="28" t="s">
         <v>42</v>
       </c>
@@ -9269,7 +9372,7 @@
         <v>478200</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B389" s="28" t="s">
         <v>42</v>
       </c>
@@ -9283,7 +9386,7 @@
         <v>137300</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B4"/>
@@ -9298,20 +9401,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -9322,7 +9425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="66">
         <v>1818</v>
       </c>
@@ -9333,7 +9436,7 @@
         <v>1498000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="66">
         <v>4210</v>
       </c>
@@ -9344,7 +9447,7 @@
         <v>1308000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="66">
         <v>1824</v>
       </c>
@@ -9355,7 +9458,7 @@
         <v>1353000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="66">
         <v>1426</v>
       </c>
@@ -9372,19 +9475,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -9395,7 +9498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="55">
         <v>2391000</v>
       </c>
@@ -9406,7 +9509,7 @@
         <v>2313000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2497000</v>
       </c>
@@ -9417,7 +9520,7 @@
         <v>2446000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="61">
         <v>2728000</v>
       </c>
@@ -9428,7 +9531,7 @@
         <v>2523000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="63">
         <v>2420000</v>
       </c>
@@ -9437,6 +9540,141 @@
       </c>
       <c r="C5" s="65">
         <v>2336000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3D96C1-0DE2-2642-AA56-63F0890F6181}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="13" width="8.1640625" style="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="74" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/DualReporter_example_data.xlsx
+++ b/DualReporter_example_data.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joachim/surfdrive/Shiny-project/dual-luciferase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC327EE-40C7-9048-A9DA-185EA9765A31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708273E8-6BCE-4448-B8B1-E5D518198977}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="27240" windowHeight="14780" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="27240" windowHeight="14780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dual Luciferase Reporter Assa.." sheetId="1" r:id="rId1"/>
     <sheet name="Results" sheetId="2" r:id="rId2"/>
     <sheet name="Results By Well" sheetId="3" r:id="rId3"/>
-    <sheet name="firefly" sheetId="4" r:id="rId4"/>
-    <sheet name="renilla" sheetId="5" r:id="rId5"/>
-    <sheet name="conditions" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Application_Name">'Dual Luciferase Reporter Assa..'!$D$10</definedName>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="142">
   <si>
     <t>Result: Dual Luciferase Reporter Assay System ELIAS 2019.02.12 02:59:36</t>
   </si>
@@ -469,48 +466,6 @@
   </si>
   <si>
     <t>HEK293T cells</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>Column_1</t>
-  </si>
-  <si>
-    <t>Column_2</t>
-  </si>
-  <si>
-    <t>Column_3</t>
-  </si>
-  <si>
-    <t>Column_4</t>
-  </si>
-  <si>
-    <t>Column_5</t>
-  </si>
-  <si>
-    <t>Column_6</t>
-  </si>
-  <si>
-    <t>Column_7</t>
-  </si>
-  <si>
-    <t>Column_8</t>
-  </si>
-  <si>
-    <t>Column_9</t>
-  </si>
-  <si>
-    <t>Column_10</t>
-  </si>
-  <si>
-    <t>Column_11</t>
-  </si>
-  <si>
-    <t>Column_12</t>
   </si>
 </sst>
 </file>
@@ -521,7 +476,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,13 +548,6 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="-0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -804,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,64 +902,9 @@
     <xf numFmtId="11" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1524,7 +1417,7 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="1.83203125" style="26" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" style="28" customWidth="1"/>
@@ -1532,69 +1425,69 @@
     <col min="4" max="4" width="84.5" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="15" customFormat="1" ht="5.25" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="17"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="21">
       <c r="A2" s="22"/>
-      <c r="B2" s="75"/>
-      <c r="D2" s="76" t="s">
+      <c r="B2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-    </row>
-    <row r="3" spans="1:14" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" s="24" customFormat="1" ht="21">
       <c r="A3" s="22"/>
-      <c r="B3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-    </row>
-    <row r="4" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" s="15" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="B4" s="75"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-    </row>
-    <row r="5" spans="1:14" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="56"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+    </row>
+    <row r="5" spans="1:14" s="15" customFormat="1" ht="4.5" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="15" customFormat="1">
       <c r="A6" s="14"/>
       <c r="B6" s="17"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:14" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="33" customFormat="1" ht="24.75" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
@@ -1604,7 +1497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="15" customFormat="1">
       <c r="A8" s="14"/>
       <c r="B8" s="36" t="s">
         <v>7</v>
@@ -1614,13 +1507,13 @@
         <v>43508.124756944446</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="15" customFormat="1" ht="6.75" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="36"/>
       <c r="C9" s="30"/>
       <c r="D9" s="27"/>
     </row>
-    <row r="10" spans="1:14" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="33" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="36" t="s">
         <v>11</v>
@@ -1640,7 +1533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="36" t="s">
         <v>6</v>
@@ -1650,7 +1543,7 @@
         <v>9111000078</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="36" t="s">
         <v>10</v>
@@ -1660,7 +1553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="36" t="s">
         <v>8</v>
@@ -1670,32 +1563,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="15" customFormat="1" ht="6.75" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="36"/>
       <c r="C15" s="30"/>
       <c r="D15" s="27"/>
     </row>
-    <row r="16" spans="1:14" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="15" customFormat="1" ht="19">
       <c r="A16" s="18"/>
       <c r="B16" s="36"/>
       <c r="C16" s="30"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="1:4" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="15" customFormat="1" ht="6.75" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="36"/>
       <c r="C17" s="30"/>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:4" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="15" customFormat="1" ht="19">
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="17"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="15" customFormat="1">
       <c r="A19" s="14"/>
       <c r="B19" s="17" t="s">
         <v>12</v>
@@ -1704,1217 +1597,1217 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="15" customFormat="1">
       <c r="A20" s="14"/>
       <c r="B20" s="17"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="15" customFormat="1">
       <c r="A21" s="14"/>
       <c r="B21" s="17"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="15" customFormat="1">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="15" customFormat="1">
       <c r="A23" s="14"/>
       <c r="B23" s="17"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="15" customFormat="1">
       <c r="A24" s="14"/>
       <c r="B24" s="17"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="15" customFormat="1">
       <c r="A25" s="14"/>
       <c r="B25" s="17"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" s="15" customFormat="1">
       <c r="A26" s="14"/>
       <c r="B26" s="17"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="15" customFormat="1">
       <c r="A27" s="14"/>
       <c r="B27" s="17"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="15" customFormat="1">
       <c r="A28" s="14"/>
       <c r="B28" s="17"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" s="15" customFormat="1">
       <c r="A29" s="14"/>
       <c r="B29" s="17"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" s="15" customFormat="1">
       <c r="A30" s="14"/>
       <c r="B30" s="17"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="15" customFormat="1">
       <c r="A31" s="14"/>
       <c r="B31" s="17"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="15" customFormat="1">
       <c r="A32" s="14"/>
       <c r="B32" s="17"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" s="15" customFormat="1">
       <c r="A33" s="14"/>
       <c r="B33" s="17"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" s="15" customFormat="1">
       <c r="A34" s="14"/>
       <c r="B34" s="17"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" s="15" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="17"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" s="15" customFormat="1">
       <c r="A36" s="14"/>
       <c r="B36" s="17"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" s="15" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="17"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" s="15" customFormat="1">
       <c r="A38" s="14"/>
       <c r="B38" s="17"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" s="15" customFormat="1">
       <c r="A39" s="14"/>
       <c r="B39" s="17"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" s="15" customFormat="1">
       <c r="A40" s="14"/>
       <c r="B40" s="17"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" s="15" customFormat="1">
       <c r="A41" s="14"/>
       <c r="B41" s="17"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="15" customFormat="1">
       <c r="A42" s="14"/>
       <c r="B42" s="17"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" s="15" customFormat="1">
       <c r="A43" s="14"/>
       <c r="B43" s="17"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" s="15" customFormat="1">
       <c r="A44" s="14"/>
       <c r="B44" s="17"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" s="15" customFormat="1">
       <c r="A45" s="14"/>
       <c r="B45" s="17"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" s="15" customFormat="1">
       <c r="A46" s="14"/>
       <c r="B46" s="17"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" s="15" customFormat="1">
       <c r="A47" s="14"/>
       <c r="B47" s="17"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" s="15" customFormat="1">
       <c r="A48" s="14"/>
       <c r="B48" s="17"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" s="15" customFormat="1">
       <c r="A49" s="14"/>
       <c r="B49" s="17"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" s="15" customFormat="1">
       <c r="A50" s="14"/>
       <c r="B50" s="17"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" s="15" customFormat="1">
       <c r="A51" s="14"/>
       <c r="B51" s="17"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" s="15" customFormat="1">
       <c r="A52" s="14"/>
       <c r="B52" s="17"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" s="15" customFormat="1">
       <c r="A53" s="14"/>
       <c r="B53" s="17"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" s="15" customFormat="1">
       <c r="A54" s="14"/>
       <c r="B54" s="17"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" s="15" customFormat="1">
       <c r="A55" s="14"/>
       <c r="B55" s="17"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" s="15" customFormat="1">
       <c r="A56" s="14"/>
       <c r="B56" s="17"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" s="15" customFormat="1">
       <c r="A57" s="14"/>
       <c r="B57" s="17"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" s="15" customFormat="1">
       <c r="A58" s="14"/>
       <c r="B58" s="17"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" s="15" customFormat="1">
       <c r="A59" s="14"/>
       <c r="B59" s="17"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" s="15" customFormat="1">
       <c r="A60" s="14"/>
       <c r="B60" s="17"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" s="15" customFormat="1">
       <c r="A61" s="14"/>
       <c r="B61" s="17"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" s="15" customFormat="1">
       <c r="A62" s="14"/>
       <c r="B62" s="17"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" s="15" customFormat="1">
       <c r="A63" s="14"/>
       <c r="B63" s="17"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" s="15" customFormat="1">
       <c r="A64" s="14"/>
       <c r="B64" s="17"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="15" customFormat="1">
       <c r="A65" s="14"/>
       <c r="B65" s="17"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" s="15" customFormat="1">
       <c r="A66" s="14"/>
       <c r="B66" s="17"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="15" customFormat="1">
       <c r="A67" s="14"/>
       <c r="B67" s="17"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="15" customFormat="1">
       <c r="A68" s="14"/>
       <c r="B68" s="17"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" s="15" customFormat="1">
       <c r="A69" s="14"/>
       <c r="B69" s="17"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" s="15" customFormat="1">
       <c r="A70" s="14"/>
       <c r="B70" s="17"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="15" customFormat="1">
       <c r="A71" s="14"/>
       <c r="B71" s="17"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" s="15" customFormat="1">
       <c r="A72" s="14"/>
       <c r="B72" s="17"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" s="15" customFormat="1">
       <c r="A73" s="14"/>
       <c r="B73" s="17"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" s="15" customFormat="1">
       <c r="A74" s="14"/>
       <c r="B74" s="17"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" s="15" customFormat="1">
       <c r="A75" s="14"/>
       <c r="B75" s="17"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" s="15" customFormat="1">
       <c r="A76" s="14"/>
       <c r="B76" s="17"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" s="15" customFormat="1">
       <c r="A77" s="14"/>
       <c r="B77" s="17"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" s="15" customFormat="1">
       <c r="A78" s="14"/>
       <c r="B78" s="17"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" s="15" customFormat="1">
       <c r="A79" s="14"/>
       <c r="B79" s="17"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" s="15" customFormat="1">
       <c r="A80" s="14"/>
       <c r="B80" s="17"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" s="15" customFormat="1">
       <c r="A81" s="14"/>
       <c r="B81" s="17"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" s="15" customFormat="1">
       <c r="A82" s="14"/>
       <c r="B82" s="17"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" s="15" customFormat="1">
       <c r="A83" s="14"/>
       <c r="B83" s="17"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" s="15" customFormat="1">
       <c r="A84" s="14"/>
       <c r="B84" s="17"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" s="15" customFormat="1">
       <c r="A85" s="14"/>
       <c r="B85" s="17"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" s="15" customFormat="1">
       <c r="A86" s="14"/>
       <c r="B86" s="17"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" s="15" customFormat="1">
       <c r="A87" s="14"/>
       <c r="B87" s="17"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" s="15" customFormat="1">
       <c r="A88" s="14"/>
       <c r="B88" s="17"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" s="15" customFormat="1">
       <c r="A89" s="14"/>
       <c r="B89" s="17"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" s="15" customFormat="1">
       <c r="A90" s="14"/>
       <c r="B90" s="17"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" s="15" customFormat="1">
       <c r="A91" s="14"/>
       <c r="B91" s="17"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" s="15" customFormat="1">
       <c r="A92" s="14"/>
       <c r="B92" s="17"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" s="15" customFormat="1">
       <c r="A93" s="14"/>
       <c r="B93" s="17"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" s="15" customFormat="1">
       <c r="A94" s="14"/>
       <c r="B94" s="17"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" s="15" customFormat="1">
       <c r="A95" s="14"/>
       <c r="B95" s="17"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" s="15" customFormat="1">
       <c r="A96" s="14"/>
       <c r="B96" s="17"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" s="15" customFormat="1">
       <c r="A97" s="14"/>
       <c r="B97" s="17"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" s="15" customFormat="1">
       <c r="A98" s="14"/>
       <c r="B98" s="17"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" s="15" customFormat="1">
       <c r="A99" s="14"/>
       <c r="B99" s="17"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" s="15" customFormat="1">
       <c r="A100" s="14"/>
       <c r="B100" s="17"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" s="15" customFormat="1">
       <c r="A101" s="14"/>
       <c r="B101" s="17"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" s="15" customFormat="1">
       <c r="A102" s="14"/>
       <c r="B102" s="17"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" s="15" customFormat="1">
       <c r="A103" s="14"/>
       <c r="B103" s="17"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" s="15" customFormat="1">
       <c r="A104" s="14"/>
       <c r="B104" s="17"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" s="15" customFormat="1">
       <c r="A105" s="14"/>
       <c r="B105" s="17"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" s="15" customFormat="1">
       <c r="A106" s="14"/>
       <c r="B106" s="17"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" s="15" customFormat="1">
       <c r="A107" s="14"/>
       <c r="B107" s="17"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" s="15" customFormat="1">
       <c r="A108" s="14"/>
       <c r="B108" s="17"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" s="15" customFormat="1">
       <c r="A109" s="14"/>
       <c r="B109" s="17"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" s="15" customFormat="1">
       <c r="A110" s="14"/>
       <c r="B110" s="17"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" s="15" customFormat="1">
       <c r="A111" s="14"/>
       <c r="B111" s="17"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" s="15" customFormat="1">
       <c r="A112" s="14"/>
       <c r="B112" s="17"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" s="15" customFormat="1">
       <c r="A113" s="14"/>
       <c r="B113" s="17"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" s="15" customFormat="1">
       <c r="A114" s="14"/>
       <c r="B114" s="17"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" s="15" customFormat="1">
       <c r="A115" s="14"/>
       <c r="B115" s="17"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" s="15" customFormat="1">
       <c r="A116" s="14"/>
       <c r="B116" s="17"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" s="15" customFormat="1">
       <c r="A117" s="14"/>
       <c r="B117" s="17"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" s="15" customFormat="1">
       <c r="A118" s="14"/>
       <c r="B118" s="17"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" s="15" customFormat="1">
       <c r="A119" s="14"/>
       <c r="B119" s="17"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" s="15" customFormat="1">
       <c r="A120" s="14"/>
       <c r="B120" s="17"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" s="15" customFormat="1">
       <c r="A121" s="14"/>
       <c r="B121" s="17"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" s="15" customFormat="1">
       <c r="A122" s="14"/>
       <c r="B122" s="17"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" s="15" customFormat="1">
       <c r="A123" s="14"/>
       <c r="B123" s="17"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" s="15" customFormat="1">
       <c r="A124" s="14"/>
       <c r="B124" s="17"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" s="15" customFormat="1">
       <c r="A125" s="14"/>
       <c r="B125" s="17"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" s="15" customFormat="1">
       <c r="A126" s="14"/>
       <c r="B126" s="17"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" s="15" customFormat="1">
       <c r="A127" s="14"/>
       <c r="B127" s="17"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" s="15" customFormat="1">
       <c r="A128" s="14"/>
       <c r="B128" s="17"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" s="15" customFormat="1">
       <c r="A129" s="14"/>
       <c r="B129" s="17"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" s="15" customFormat="1">
       <c r="A130" s="14"/>
       <c r="B130" s="17"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" s="15" customFormat="1">
       <c r="A131" s="14"/>
       <c r="B131" s="17"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" s="15" customFormat="1">
       <c r="A132" s="14"/>
       <c r="B132" s="17"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" s="15" customFormat="1">
       <c r="A133" s="14"/>
       <c r="B133" s="17"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" s="15" customFormat="1">
       <c r="A134" s="14"/>
       <c r="B134" s="17"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" s="15" customFormat="1">
       <c r="A135" s="14"/>
       <c r="B135" s="17"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" s="15" customFormat="1">
       <c r="A136" s="14"/>
       <c r="B136" s="17"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" s="15" customFormat="1">
       <c r="A137" s="14"/>
       <c r="B137" s="17"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" s="15" customFormat="1">
       <c r="A138" s="14"/>
       <c r="B138" s="17"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" s="15" customFormat="1">
       <c r="A139" s="14"/>
       <c r="B139" s="17"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" s="15" customFormat="1">
       <c r="A140" s="14"/>
       <c r="B140" s="17"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" s="15" customFormat="1">
       <c r="A141" s="14"/>
       <c r="B141" s="17"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" s="15" customFormat="1">
       <c r="A142" s="14"/>
       <c r="B142" s="17"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" s="15" customFormat="1">
       <c r="A143" s="14"/>
       <c r="B143" s="17"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" s="15" customFormat="1">
       <c r="A144" s="14"/>
       <c r="B144" s="17"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" s="15" customFormat="1">
       <c r="A145" s="14"/>
       <c r="B145" s="17"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" s="15" customFormat="1">
       <c r="A146" s="14"/>
       <c r="B146" s="17"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" s="15" customFormat="1">
       <c r="A147" s="14"/>
       <c r="B147" s="17"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" s="15" customFormat="1">
       <c r="A148" s="14"/>
       <c r="B148" s="17"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" s="15" customFormat="1">
       <c r="A149" s="14"/>
       <c r="B149" s="17"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" s="15" customFormat="1">
       <c r="A150" s="14"/>
       <c r="B150" s="17"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" s="15" customFormat="1">
       <c r="A151" s="14"/>
       <c r="B151" s="17"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" s="15" customFormat="1">
       <c r="A152" s="14"/>
       <c r="B152" s="17"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" s="15" customFormat="1">
       <c r="A153" s="14"/>
       <c r="B153" s="17"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" s="15" customFormat="1">
       <c r="A154" s="14"/>
       <c r="B154" s="17"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" s="15" customFormat="1">
       <c r="A155" s="14"/>
       <c r="B155" s="17"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" s="15" customFormat="1">
       <c r="A156" s="14"/>
       <c r="B156" s="17"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" s="15" customFormat="1">
       <c r="A157" s="14"/>
       <c r="B157" s="17"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" s="15" customFormat="1">
       <c r="A158" s="14"/>
       <c r="B158" s="17"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" s="15" customFormat="1">
       <c r="A159" s="14"/>
       <c r="B159" s="17"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" s="15" customFormat="1">
       <c r="A160" s="14"/>
       <c r="B160" s="17"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" s="15" customFormat="1">
       <c r="A161" s="14"/>
       <c r="B161" s="17"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" s="15" customFormat="1">
       <c r="A162" s="14"/>
       <c r="B162" s="17"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" s="15" customFormat="1">
       <c r="A163" s="14"/>
       <c r="B163" s="17"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" s="15" customFormat="1">
       <c r="A164" s="14"/>
       <c r="B164" s="17"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" s="15" customFormat="1">
       <c r="A165" s="14"/>
       <c r="B165" s="17"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" s="15" customFormat="1">
       <c r="A166" s="14"/>
       <c r="B166" s="17"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" s="15" customFormat="1">
       <c r="A167" s="14"/>
       <c r="B167" s="17"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" s="15" customFormat="1">
       <c r="A168" s="14"/>
       <c r="B168" s="17"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" s="15" customFormat="1">
       <c r="A169" s="14"/>
       <c r="B169" s="17"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" s="15" customFormat="1">
       <c r="A170" s="14"/>
       <c r="B170" s="17"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" s="15" customFormat="1">
       <c r="A171" s="14"/>
       <c r="B171" s="17"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" s="15" customFormat="1">
       <c r="A172" s="14"/>
       <c r="B172" s="17"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" s="15" customFormat="1">
       <c r="A173" s="14"/>
       <c r="B173" s="17"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" s="15" customFormat="1">
       <c r="A174" s="14"/>
       <c r="B174" s="17"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" s="15" customFormat="1">
       <c r="A175" s="14"/>
       <c r="B175" s="17"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" s="15" customFormat="1">
       <c r="A176" s="14"/>
       <c r="B176" s="17"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" s="15" customFormat="1">
       <c r="A177" s="14"/>
       <c r="B177" s="17"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" s="15" customFormat="1">
       <c r="A178" s="14"/>
       <c r="B178" s="17"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" s="15" customFormat="1">
       <c r="A179" s="14"/>
       <c r="B179" s="17"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" s="15" customFormat="1">
       <c r="A180" s="14"/>
       <c r="B180" s="17"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" s="15" customFormat="1">
       <c r="A181" s="14"/>
       <c r="B181" s="17"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" s="15" customFormat="1">
       <c r="A182" s="14"/>
       <c r="B182" s="17"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" s="15" customFormat="1">
       <c r="A183" s="14"/>
       <c r="B183" s="17"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" s="15" customFormat="1">
       <c r="A184" s="14"/>
       <c r="B184" s="17"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" s="15" customFormat="1">
       <c r="A185" s="14"/>
       <c r="B185" s="17"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" s="15" customFormat="1">
       <c r="A186" s="14"/>
       <c r="B186" s="17"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" s="15" customFormat="1">
       <c r="A187" s="14"/>
       <c r="B187" s="17"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" s="15" customFormat="1">
       <c r="A188" s="14"/>
       <c r="B188" s="17"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" s="15" customFormat="1">
       <c r="A189" s="14"/>
       <c r="B189" s="17"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" s="15" customFormat="1">
       <c r="A190" s="14"/>
       <c r="B190" s="17"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" s="15" customFormat="1">
       <c r="A191" s="14"/>
       <c r="B191" s="17"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" s="15" customFormat="1">
       <c r="A192" s="14"/>
       <c r="B192" s="17"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" s="15" customFormat="1">
       <c r="A193" s="14"/>
       <c r="B193" s="17"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" s="15" customFormat="1">
       <c r="A194" s="14"/>
       <c r="B194" s="17"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" s="15" customFormat="1">
       <c r="A195" s="14"/>
       <c r="B195" s="17"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" s="15" customFormat="1">
       <c r="A196" s="14"/>
       <c r="B196" s="17"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" s="15" customFormat="1">
       <c r="A197" s="14"/>
       <c r="B197" s="17"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" s="15" customFormat="1">
       <c r="A198" s="14"/>
       <c r="B198" s="17"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" s="15" customFormat="1">
       <c r="A199" s="14"/>
       <c r="B199" s="17"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" s="15" customFormat="1">
       <c r="A200" s="14"/>
       <c r="B200" s="17"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" s="15" customFormat="1">
       <c r="A201" s="14"/>
       <c r="B201" s="17"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" s="15" customFormat="1">
       <c r="A202" s="14"/>
       <c r="B202" s="17"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" s="15" customFormat="1">
       <c r="A203" s="14"/>
       <c r="B203" s="17"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" s="15" customFormat="1">
       <c r="A204" s="14"/>
       <c r="B204" s="17"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" s="15" customFormat="1">
       <c r="A205" s="14"/>
       <c r="B205" s="17"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" s="15" customFormat="1">
       <c r="A206" s="14"/>
       <c r="B206" s="17"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" s="15" customFormat="1">
       <c r="A207" s="14"/>
       <c r="B207" s="17"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" s="15" customFormat="1">
       <c r="A208" s="14"/>
       <c r="B208" s="17"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" s="15" customFormat="1">
       <c r="A209" s="14"/>
       <c r="B209" s="17"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" s="15" customFormat="1">
       <c r="A210" s="14"/>
       <c r="B210" s="17"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" s="15" customFormat="1">
       <c r="A211" s="14"/>
       <c r="B211" s="17"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" s="15" customFormat="1">
       <c r="A212" s="14"/>
       <c r="B212" s="17"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" s="15" customFormat="1">
       <c r="A213" s="14"/>
       <c r="B213" s="17"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" s="15" customFormat="1">
       <c r="A214" s="14"/>
       <c r="B214" s="17"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" s="15" customFormat="1">
       <c r="A215" s="14"/>
       <c r="B215" s="17"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" s="15" customFormat="1">
       <c r="A216" s="14"/>
       <c r="B216" s="17"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" s="15" customFormat="1">
       <c r="A217" s="14"/>
       <c r="B217" s="17"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" s="15" customFormat="1">
       <c r="A218" s="14"/>
       <c r="B218" s="17"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" s="15" customFormat="1">
       <c r="A219" s="14"/>
       <c r="B219" s="17"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" s="15" customFormat="1">
       <c r="A220" s="14"/>
       <c r="B220" s="17"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" s="15" customFormat="1">
       <c r="A221" s="14"/>
       <c r="B221" s="17"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" s="15" customFormat="1">
       <c r="A222" s="14"/>
       <c r="B222" s="17"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" s="15" customFormat="1">
       <c r="A223" s="14"/>
       <c r="B223" s="17"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" s="15" customFormat="1">
       <c r="A224" s="14"/>
       <c r="B224" s="17"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" s="15" customFormat="1">
       <c r="A225" s="14"/>
       <c r="B225" s="17"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" s="15" customFormat="1">
       <c r="A226" s="14"/>
       <c r="B226" s="17"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" s="15" customFormat="1">
       <c r="A227" s="14"/>
       <c r="B227" s="17"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" s="15" customFormat="1">
       <c r="A228" s="14"/>
       <c r="B228" s="17"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" s="15" customFormat="1">
       <c r="A229" s="14"/>
       <c r="B229" s="17"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" s="15" customFormat="1">
       <c r="A230" s="14"/>
       <c r="B230" s="17"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" s="15" customFormat="1">
       <c r="A231" s="14"/>
       <c r="B231" s="17"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" s="15" customFormat="1">
       <c r="A232" s="14"/>
       <c r="B232" s="17"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" s="15" customFormat="1">
       <c r="A233" s="14"/>
       <c r="B233" s="17"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" s="15" customFormat="1">
       <c r="A234" s="14"/>
       <c r="B234" s="17"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" s="15" customFormat="1">
       <c r="A235" s="14"/>
       <c r="B235" s="17"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" s="15" customFormat="1">
       <c r="A236" s="14"/>
       <c r="B236" s="17"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" s="15" customFormat="1">
       <c r="A237" s="14"/>
       <c r="B237" s="17"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" s="15" customFormat="1">
       <c r="A238" s="14"/>
       <c r="B238" s="17"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" s="15" customFormat="1">
       <c r="A239" s="14"/>
       <c r="B239" s="17"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" s="15" customFormat="1">
       <c r="A240" s="14"/>
       <c r="B240" s="17"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" s="15" customFormat="1">
       <c r="A241" s="14"/>
       <c r="B241" s="17"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" s="15" customFormat="1">
       <c r="A242" s="14"/>
       <c r="B242" s="17"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" s="15" customFormat="1">
       <c r="A243" s="14"/>
       <c r="B243" s="17"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" s="15" customFormat="1">
       <c r="A244" s="14"/>
       <c r="B244" s="17"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" s="15" customFormat="1">
       <c r="A245" s="14"/>
       <c r="B245" s="17"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" s="15" customFormat="1">
       <c r="A246" s="14"/>
       <c r="B246" s="17"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" s="15" customFormat="1">
       <c r="A247" s="14"/>
       <c r="B247" s="17"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" s="15" customFormat="1">
       <c r="A248" s="14"/>
       <c r="B248" s="17"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" s="15" customFormat="1">
       <c r="A249" s="14"/>
       <c r="B249" s="17"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" s="15" customFormat="1">
       <c r="A250" s="14"/>
       <c r="B250" s="17"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" s="15" customFormat="1">
       <c r="A251" s="14"/>
       <c r="B251" s="17"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" s="15" customFormat="1">
       <c r="A252" s="14"/>
       <c r="B252" s="17"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" s="15" customFormat="1">
       <c r="A253" s="14"/>
       <c r="B253" s="17"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" s="15" customFormat="1">
       <c r="A254" s="14"/>
       <c r="B254" s="17"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" s="15" customFormat="1">
       <c r="A255" s="14"/>
       <c r="B255" s="17"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" s="15" customFormat="1">
       <c r="A256" s="14"/>
       <c r="B256" s="17"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" s="15" customFormat="1">
       <c r="A257" s="14"/>
       <c r="B257" s="17"/>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" s="15" customFormat="1">
       <c r="A258" s="14"/>
       <c r="B258" s="17"/>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" s="15" customFormat="1">
       <c r="A259" s="14"/>
       <c r="B259" s="17"/>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" s="15" customFormat="1">
       <c r="A260" s="14"/>
       <c r="B260" s="17"/>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" s="15" customFormat="1">
       <c r="A261" s="14"/>
       <c r="B261" s="17"/>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" s="15" customFormat="1">
       <c r="A262" s="14"/>
       <c r="B262" s="17"/>
       <c r="D262" s="4"/>
@@ -2936,11 +2829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="1.83203125" style="26" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="28" customWidth="1"/>
@@ -2950,75 +2843,75 @@
     <col min="7" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="15" customFormat="1" ht="5.25" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="17"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="24" customFormat="1" ht="21">
       <c r="A2" s="22"/>
-      <c r="B2" s="75"/>
-      <c r="D2" s="76" t="s">
+      <c r="B2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="24" customFormat="1" ht="21">
       <c r="A3" s="22"/>
-      <c r="B3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="B3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="14"/>
-      <c r="B4" s="75"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
+      <c r="B4" s="56"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="15" customFormat="1" ht="4.5" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="15" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>140</v>
       </c>
@@ -3027,26 +2920,26 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="15" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="15" customFormat="1">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="15" customFormat="1">
       <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="17"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="15" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -3055,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="15" customFormat="1">
       <c r="A11" s="14"/>
       <c r="B11" s="17" t="s">
         <v>22</v>
@@ -3064,7 +2957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="15" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
         <v>23</v>
@@ -3073,19 +2966,19 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="15" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="15" customFormat="1">
       <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="17"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="15" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="17" t="s">
         <v>25</v>
@@ -3094,19 +2987,19 @@
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="15" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="15" customFormat="1">
       <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="17"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="15" customFormat="1">
       <c r="A18" s="14"/>
       <c r="B18" s="17" t="s">
         <v>27</v>
@@ -3115,7 +3008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="15" customFormat="1">
       <c r="A19" s="14"/>
       <c r="B19" s="17" t="s">
         <v>29</v>
@@ -3124,7 +3017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="17" t="s">
         <v>30</v>
@@ -3169,7 +3062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="17"/>
       <c r="D21" s="16"/>
@@ -3185,17 +3078,17 @@
       <c r="H21" s="23">
         <v>1498000</v>
       </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-    </row>
-    <row r="22" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+    </row>
+    <row r="22" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="D22" s="16"/>
@@ -3211,17 +3104,17 @@
       <c r="H22" s="54">
         <v>1308000</v>
       </c>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-    </row>
-    <row r="23" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+    </row>
+    <row r="23" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="17"/>
       <c r="D23" s="16"/>
@@ -3237,17 +3130,17 @@
       <c r="H23" s="45">
         <v>1353000</v>
       </c>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-    </row>
-    <row r="24" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+    </row>
+    <row r="24" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="17"/>
       <c r="D24" s="4"/>
@@ -3263,113 +3156,113 @@
       <c r="H24" s="49">
         <v>1371000</v>
       </c>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-    </row>
-    <row r="25" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+    </row>
+    <row r="25" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="17"/>
       <c r="D25" s="4"/>
       <c r="E25" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
       <c r="R25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="17"/>
       <c r="D26" s="4"/>
       <c r="E26" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
       <c r="R26" s="30"/>
     </row>
-    <row r="27" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="17"/>
       <c r="D27" s="4"/>
       <c r="E27" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
       <c r="R27" s="30"/>
     </row>
-    <row r="28" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="17"/>
       <c r="D28" s="4"/>
       <c r="E28" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
       <c r="R28" s="30"/>
     </row>
-    <row r="29" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" s="15" customFormat="1">
       <c r="A29" s="14"/>
       <c r="B29" s="17"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="15" customFormat="1">
       <c r="A30" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="17"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" s="15" customFormat="1">
       <c r="A31" s="14"/>
       <c r="B31" s="17" t="s">
         <v>21</v>
@@ -3378,7 +3271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" s="15" customFormat="1">
       <c r="A32" s="14"/>
       <c r="B32" s="17" t="s">
         <v>22</v>
@@ -3387,7 +3280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" s="15" customFormat="1">
       <c r="A33" s="14"/>
       <c r="B33" s="17" t="s">
         <v>23</v>
@@ -3396,19 +3289,19 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" s="15" customFormat="1">
       <c r="A34" s="14"/>
       <c r="B34" s="17"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" s="15" customFormat="1">
       <c r="A35" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="17"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="15" customFormat="1">
       <c r="A36" s="14"/>
       <c r="B36" s="17" t="s">
         <v>25</v>
@@ -3417,19 +3310,19 @@
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" s="15" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="17"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" s="15" customFormat="1">
       <c r="A38" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="17"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" s="15" customFormat="1">
       <c r="A39" s="14"/>
       <c r="B39" s="17" t="s">
         <v>27</v>
@@ -3438,7 +3331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="15" customFormat="1">
       <c r="A40" s="14"/>
       <c r="B40" s="17" t="s">
         <v>29</v>
@@ -3447,7 +3340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="17" t="s">
         <v>30</v>
@@ -3492,7 +3385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A42" s="14"/>
       <c r="B42" s="17"/>
       <c r="D42" s="4"/>
@@ -3508,17 +3401,17 @@
       <c r="H42" s="42">
         <v>2313000</v>
       </c>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-    </row>
-    <row r="43" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+    </row>
+    <row r="43" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A43" s="14"/>
       <c r="B43" s="17"/>
       <c r="D43" s="4"/>
@@ -3534,17 +3427,17 @@
       <c r="H43" s="48">
         <v>2446000</v>
       </c>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-    </row>
-    <row r="44" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+    </row>
+    <row r="44" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A44" s="14"/>
       <c r="B44" s="17"/>
       <c r="D44" s="4"/>
@@ -3560,17 +3453,17 @@
       <c r="H44" s="39">
         <v>2523000</v>
       </c>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-    </row>
-    <row r="45" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+    </row>
+    <row r="45" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A45" s="14"/>
       <c r="B45" s="17"/>
       <c r="D45" s="4"/>
@@ -3586,1136 +3479,1136 @@
       <c r="H45" s="53">
         <v>2336000</v>
       </c>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-    </row>
-    <row r="46" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+    </row>
+    <row r="46" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A46" s="14"/>
       <c r="B46" s="17"/>
       <c r="D46" s="4"/>
       <c r="E46" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
       <c r="R46" s="30"/>
     </row>
-    <row r="47" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A47" s="14"/>
       <c r="B47" s="17"/>
       <c r="D47" s="4"/>
       <c r="E47" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
       <c r="R47" s="30"/>
     </row>
-    <row r="48" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A48" s="14"/>
       <c r="B48" s="17"/>
       <c r="D48" s="4"/>
       <c r="E48" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
       <c r="R48" s="30"/>
     </row>
-    <row r="49" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A49" s="14"/>
       <c r="B49" s="17"/>
       <c r="D49" s="4"/>
       <c r="E49" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
       <c r="R49" s="30"/>
     </row>
-    <row r="50" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" s="15" customFormat="1">
       <c r="A50" s="14"/>
       <c r="B50" s="17"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" s="15" customFormat="1">
       <c r="A51" s="14"/>
       <c r="B51" s="17"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" s="15" customFormat="1">
       <c r="A52" s="14"/>
       <c r="B52" s="17"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" s="15" customFormat="1">
       <c r="A53" s="14"/>
       <c r="B53" s="17"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" s="15" customFormat="1">
       <c r="A54" s="14"/>
       <c r="B54" s="17"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" s="15" customFormat="1">
       <c r="A55" s="14"/>
       <c r="B55" s="17"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" s="15" customFormat="1">
       <c r="A56" s="14"/>
       <c r="B56" s="17"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" s="15" customFormat="1">
       <c r="A57" s="14"/>
       <c r="B57" s="17"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" s="15" customFormat="1">
       <c r="A58" s="14"/>
       <c r="B58" s="17"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" s="15" customFormat="1">
       <c r="A59" s="14"/>
       <c r="B59" s="17"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" s="15" customFormat="1">
       <c r="A60" s="14"/>
       <c r="B60" s="17"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" s="15" customFormat="1">
       <c r="A61" s="14"/>
       <c r="B61" s="17"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" s="15" customFormat="1">
       <c r="A62" s="14"/>
       <c r="B62" s="17"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" s="15" customFormat="1">
       <c r="A63" s="14"/>
       <c r="B63" s="17"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" s="15" customFormat="1">
       <c r="A64" s="14"/>
       <c r="B64" s="17"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="15" customFormat="1">
       <c r="A65" s="14"/>
       <c r="B65" s="17"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" s="15" customFormat="1">
       <c r="A66" s="14"/>
       <c r="B66" s="17"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="15" customFormat="1">
       <c r="A67" s="14"/>
       <c r="B67" s="17"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="15" customFormat="1">
       <c r="A68" s="14"/>
       <c r="B68" s="17"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" s="15" customFormat="1">
       <c r="A69" s="14"/>
       <c r="B69" s="17"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" s="15" customFormat="1">
       <c r="A70" s="14"/>
       <c r="B70" s="17"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="15" customFormat="1">
       <c r="A71" s="14"/>
       <c r="B71" s="17"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" s="15" customFormat="1">
       <c r="A72" s="14"/>
       <c r="B72" s="17"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" s="15" customFormat="1">
       <c r="A73" s="14"/>
       <c r="B73" s="17"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" s="15" customFormat="1">
       <c r="A74" s="14"/>
       <c r="B74" s="17"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" s="15" customFormat="1">
       <c r="A75" s="14"/>
       <c r="B75" s="17"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" s="15" customFormat="1">
       <c r="A76" s="14"/>
       <c r="B76" s="17"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" s="15" customFormat="1">
       <c r="A77" s="14"/>
       <c r="B77" s="17"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" s="15" customFormat="1">
       <c r="A78" s="14"/>
       <c r="B78" s="17"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" s="15" customFormat="1">
       <c r="A79" s="14"/>
       <c r="B79" s="17"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" s="15" customFormat="1">
       <c r="A80" s="14"/>
       <c r="B80" s="17"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" s="15" customFormat="1">
       <c r="A81" s="14"/>
       <c r="B81" s="17"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" s="15" customFormat="1">
       <c r="A82" s="14"/>
       <c r="B82" s="17"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" s="15" customFormat="1">
       <c r="A83" s="14"/>
       <c r="B83" s="17"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" s="15" customFormat="1">
       <c r="A84" s="14"/>
       <c r="B84" s="17"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" s="15" customFormat="1">
       <c r="A85" s="14"/>
       <c r="B85" s="17"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" s="15" customFormat="1">
       <c r="A86" s="14"/>
       <c r="B86" s="17"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" s="15" customFormat="1">
       <c r="A87" s="14"/>
       <c r="B87" s="17"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" s="15" customFormat="1">
       <c r="A88" s="14"/>
       <c r="B88" s="17"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" s="15" customFormat="1">
       <c r="A89" s="14"/>
       <c r="B89" s="17"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" s="15" customFormat="1">
       <c r="A90" s="14"/>
       <c r="B90" s="17"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" s="15" customFormat="1">
       <c r="A91" s="14"/>
       <c r="B91" s="17"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" s="15" customFormat="1">
       <c r="A92" s="14"/>
       <c r="B92" s="17"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" s="15" customFormat="1">
       <c r="A93" s="14"/>
       <c r="B93" s="17"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" s="15" customFormat="1">
       <c r="A94" s="14"/>
       <c r="B94" s="17"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" s="15" customFormat="1">
       <c r="A95" s="14"/>
       <c r="B95" s="17"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" s="15" customFormat="1">
       <c r="A96" s="14"/>
       <c r="B96" s="17"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" s="15" customFormat="1">
       <c r="A97" s="14"/>
       <c r="B97" s="17"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" s="15" customFormat="1">
       <c r="A98" s="14"/>
       <c r="B98" s="17"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" s="15" customFormat="1">
       <c r="A99" s="14"/>
       <c r="B99" s="17"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" s="15" customFormat="1">
       <c r="A100" s="14"/>
       <c r="B100" s="17"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" s="15" customFormat="1">
       <c r="A101" s="14"/>
       <c r="B101" s="17"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" s="15" customFormat="1">
       <c r="A102" s="14"/>
       <c r="B102" s="17"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" s="15" customFormat="1">
       <c r="A103" s="14"/>
       <c r="B103" s="17"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" s="15" customFormat="1">
       <c r="A104" s="14"/>
       <c r="B104" s="17"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" s="15" customFormat="1">
       <c r="A105" s="14"/>
       <c r="B105" s="17"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" s="15" customFormat="1">
       <c r="A106" s="14"/>
       <c r="B106" s="17"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" s="15" customFormat="1">
       <c r="A107" s="14"/>
       <c r="B107" s="17"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" s="15" customFormat="1">
       <c r="A108" s="14"/>
       <c r="B108" s="17"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" s="15" customFormat="1">
       <c r="A109" s="14"/>
       <c r="B109" s="17"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" s="15" customFormat="1">
       <c r="A110" s="14"/>
       <c r="B110" s="17"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" s="15" customFormat="1">
       <c r="A111" s="14"/>
       <c r="B111" s="17"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" s="15" customFormat="1">
       <c r="A112" s="14"/>
       <c r="B112" s="17"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" s="15" customFormat="1">
       <c r="A113" s="14"/>
       <c r="B113" s="17"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" s="15" customFormat="1">
       <c r="A114" s="14"/>
       <c r="B114" s="17"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" s="15" customFormat="1">
       <c r="A115" s="14"/>
       <c r="B115" s="17"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" s="15" customFormat="1">
       <c r="A116" s="14"/>
       <c r="B116" s="17"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" s="15" customFormat="1">
       <c r="A117" s="14"/>
       <c r="B117" s="17"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" s="15" customFormat="1">
       <c r="A118" s="14"/>
       <c r="B118" s="17"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" s="15" customFormat="1">
       <c r="A119" s="14"/>
       <c r="B119" s="17"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" s="15" customFormat="1">
       <c r="A120" s="14"/>
       <c r="B120" s="17"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" s="15" customFormat="1">
       <c r="A121" s="14"/>
       <c r="B121" s="17"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" s="15" customFormat="1">
       <c r="A122" s="14"/>
       <c r="B122" s="17"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" s="15" customFormat="1">
       <c r="A123" s="14"/>
       <c r="B123" s="17"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" s="15" customFormat="1">
       <c r="A124" s="14"/>
       <c r="B124" s="17"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" s="15" customFormat="1">
       <c r="A125" s="14"/>
       <c r="B125" s="17"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" s="15" customFormat="1">
       <c r="A126" s="14"/>
       <c r="B126" s="17"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" s="15" customFormat="1">
       <c r="A127" s="14"/>
       <c r="B127" s="17"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" s="15" customFormat="1">
       <c r="A128" s="14"/>
       <c r="B128" s="17"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" s="15" customFormat="1">
       <c r="A129" s="14"/>
       <c r="B129" s="17"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" s="15" customFormat="1">
       <c r="A130" s="14"/>
       <c r="B130" s="17"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" s="15" customFormat="1">
       <c r="A131" s="14"/>
       <c r="B131" s="17"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" s="15" customFormat="1">
       <c r="A132" s="14"/>
       <c r="B132" s="17"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" s="15" customFormat="1">
       <c r="A133" s="14"/>
       <c r="B133" s="17"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" s="15" customFormat="1">
       <c r="A134" s="14"/>
       <c r="B134" s="17"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" s="15" customFormat="1">
       <c r="A135" s="14"/>
       <c r="B135" s="17"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" s="15" customFormat="1">
       <c r="A136" s="14"/>
       <c r="B136" s="17"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" s="15" customFormat="1">
       <c r="A137" s="14"/>
       <c r="B137" s="17"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" s="15" customFormat="1">
       <c r="A138" s="14"/>
       <c r="B138" s="17"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" s="15" customFormat="1">
       <c r="A139" s="14"/>
       <c r="B139" s="17"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" s="15" customFormat="1">
       <c r="A140" s="14"/>
       <c r="B140" s="17"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" s="15" customFormat="1">
       <c r="A141" s="14"/>
       <c r="B141" s="17"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" s="15" customFormat="1">
       <c r="A142" s="14"/>
       <c r="B142" s="17"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" s="15" customFormat="1">
       <c r="A143" s="14"/>
       <c r="B143" s="17"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" s="15" customFormat="1">
       <c r="A144" s="14"/>
       <c r="B144" s="17"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" s="15" customFormat="1">
       <c r="A145" s="14"/>
       <c r="B145" s="17"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" s="15" customFormat="1">
       <c r="A146" s="14"/>
       <c r="B146" s="17"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" s="15" customFormat="1">
       <c r="A147" s="14"/>
       <c r="B147" s="17"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" s="15" customFormat="1">
       <c r="A148" s="14"/>
       <c r="B148" s="17"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" s="15" customFormat="1">
       <c r="A149" s="14"/>
       <c r="B149" s="17"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" s="15" customFormat="1">
       <c r="A150" s="14"/>
       <c r="B150" s="17"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" s="15" customFormat="1">
       <c r="A151" s="14"/>
       <c r="B151" s="17"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" s="15" customFormat="1">
       <c r="A152" s="14"/>
       <c r="B152" s="17"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" s="15" customFormat="1">
       <c r="A153" s="14"/>
       <c r="B153" s="17"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" s="15" customFormat="1">
       <c r="A154" s="14"/>
       <c r="B154" s="17"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" s="15" customFormat="1">
       <c r="A155" s="14"/>
       <c r="B155" s="17"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" s="15" customFormat="1">
       <c r="A156" s="14"/>
       <c r="B156" s="17"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" s="15" customFormat="1">
       <c r="A157" s="14"/>
       <c r="B157" s="17"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" s="15" customFormat="1">
       <c r="A158" s="14"/>
       <c r="B158" s="17"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" s="15" customFormat="1">
       <c r="A159" s="14"/>
       <c r="B159" s="17"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" s="15" customFormat="1">
       <c r="A160" s="14"/>
       <c r="B160" s="17"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" s="15" customFormat="1">
       <c r="A161" s="14"/>
       <c r="B161" s="17"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" s="15" customFormat="1">
       <c r="A162" s="14"/>
       <c r="B162" s="17"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" s="15" customFormat="1">
       <c r="A163" s="14"/>
       <c r="B163" s="17"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" s="15" customFormat="1">
       <c r="A164" s="14"/>
       <c r="B164" s="17"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" s="15" customFormat="1">
       <c r="A165" s="14"/>
       <c r="B165" s="17"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" s="15" customFormat="1">
       <c r="A166" s="14"/>
       <c r="B166" s="17"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" s="15" customFormat="1">
       <c r="A167" s="14"/>
       <c r="B167" s="17"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" s="15" customFormat="1">
       <c r="A168" s="14"/>
       <c r="B168" s="17"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" s="15" customFormat="1">
       <c r="A169" s="14"/>
       <c r="B169" s="17"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" s="15" customFormat="1">
       <c r="A170" s="14"/>
       <c r="B170" s="17"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" s="15" customFormat="1">
       <c r="A171" s="14"/>
       <c r="B171" s="17"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" s="15" customFormat="1">
       <c r="A172" s="14"/>
       <c r="B172" s="17"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" s="15" customFormat="1">
       <c r="A173" s="14"/>
       <c r="B173" s="17"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" s="15" customFormat="1">
       <c r="A174" s="14"/>
       <c r="B174" s="17"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" s="15" customFormat="1">
       <c r="A175" s="14"/>
       <c r="B175" s="17"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" s="15" customFormat="1">
       <c r="A176" s="14"/>
       <c r="B176" s="17"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" s="15" customFormat="1">
       <c r="A177" s="14"/>
       <c r="B177" s="17"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" s="15" customFormat="1">
       <c r="A178" s="14"/>
       <c r="B178" s="17"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" s="15" customFormat="1">
       <c r="A179" s="14"/>
       <c r="B179" s="17"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" s="15" customFormat="1">
       <c r="A180" s="14"/>
       <c r="B180" s="17"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" s="15" customFormat="1">
       <c r="A181" s="14"/>
       <c r="B181" s="17"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" s="15" customFormat="1">
       <c r="A182" s="14"/>
       <c r="B182" s="17"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" s="15" customFormat="1">
       <c r="A183" s="14"/>
       <c r="B183" s="17"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" s="15" customFormat="1">
       <c r="A184" s="14"/>
       <c r="B184" s="17"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" s="15" customFormat="1">
       <c r="A185" s="14"/>
       <c r="B185" s="17"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" s="15" customFormat="1">
       <c r="A186" s="14"/>
       <c r="B186" s="17"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" s="15" customFormat="1">
       <c r="A187" s="14"/>
       <c r="B187" s="17"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" s="15" customFormat="1">
       <c r="A188" s="14"/>
       <c r="B188" s="17"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" s="15" customFormat="1">
       <c r="A189" s="14"/>
       <c r="B189" s="17"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" s="15" customFormat="1">
       <c r="A190" s="14"/>
       <c r="B190" s="17"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" s="15" customFormat="1">
       <c r="A191" s="14"/>
       <c r="B191" s="17"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" s="15" customFormat="1">
       <c r="A192" s="14"/>
       <c r="B192" s="17"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" s="15" customFormat="1">
       <c r="A193" s="14"/>
       <c r="B193" s="17"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" s="15" customFormat="1">
       <c r="A194" s="14"/>
       <c r="B194" s="17"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" s="15" customFormat="1">
       <c r="A195" s="14"/>
       <c r="B195" s="17"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" s="15" customFormat="1">
       <c r="A196" s="14"/>
       <c r="B196" s="17"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" s="15" customFormat="1">
       <c r="A197" s="14"/>
       <c r="B197" s="17"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" s="15" customFormat="1">
       <c r="A198" s="14"/>
       <c r="B198" s="17"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" s="15" customFormat="1">
       <c r="A199" s="14"/>
       <c r="B199" s="17"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" s="15" customFormat="1">
       <c r="A200" s="14"/>
       <c r="B200" s="17"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" s="15" customFormat="1">
       <c r="A201" s="14"/>
       <c r="B201" s="17"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" s="15" customFormat="1">
       <c r="A202" s="14"/>
       <c r="B202" s="17"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" s="15" customFormat="1">
       <c r="A203" s="14"/>
       <c r="B203" s="17"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" s="15" customFormat="1">
       <c r="A204" s="14"/>
       <c r="B204" s="17"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" s="15" customFormat="1">
       <c r="A205" s="14"/>
       <c r="B205" s="17"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" s="15" customFormat="1">
       <c r="A206" s="14"/>
       <c r="B206" s="17"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" s="15" customFormat="1">
       <c r="A207" s="14"/>
       <c r="B207" s="17"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" s="15" customFormat="1">
       <c r="A208" s="14"/>
       <c r="B208" s="17"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" s="15" customFormat="1">
       <c r="A209" s="14"/>
       <c r="B209" s="17"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" s="15" customFormat="1">
       <c r="A210" s="14"/>
       <c r="B210" s="17"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" s="15" customFormat="1">
       <c r="A211" s="14"/>
       <c r="B211" s="17"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" s="15" customFormat="1">
       <c r="A212" s="14"/>
       <c r="B212" s="17"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" s="15" customFormat="1">
       <c r="A213" s="14"/>
       <c r="B213" s="17"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" s="15" customFormat="1">
       <c r="A214" s="14"/>
       <c r="B214" s="17"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" s="15" customFormat="1">
       <c r="A215" s="14"/>
       <c r="B215" s="17"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" s="15" customFormat="1">
       <c r="A216" s="14"/>
       <c r="B216" s="17"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" s="15" customFormat="1">
       <c r="A217" s="14"/>
       <c r="B217" s="17"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" s="15" customFormat="1">
       <c r="A218" s="14"/>
       <c r="B218" s="17"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" s="15" customFormat="1">
       <c r="A219" s="14"/>
       <c r="B219" s="17"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" s="15" customFormat="1">
       <c r="A220" s="14"/>
       <c r="B220" s="17"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" s="15" customFormat="1">
       <c r="A221" s="14"/>
       <c r="B221" s="17"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" s="15" customFormat="1">
       <c r="A222" s="14"/>
       <c r="B222" s="17"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" s="15" customFormat="1">
       <c r="A223" s="14"/>
       <c r="B223" s="17"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" s="15" customFormat="1">
       <c r="A224" s="14"/>
       <c r="B224" s="17"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" s="15" customFormat="1">
       <c r="A225" s="14"/>
       <c r="B225" s="17"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" s="15" customFormat="1">
       <c r="A226" s="14"/>
       <c r="B226" s="17"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" s="15" customFormat="1">
       <c r="A227" s="14"/>
       <c r="B227" s="17"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" s="15" customFormat="1">
       <c r="A228" s="14"/>
       <c r="B228" s="17"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" s="15" customFormat="1">
       <c r="A229" s="14"/>
       <c r="B229" s="17"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" s="15" customFormat="1">
       <c r="A230" s="14"/>
       <c r="B230" s="17"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" s="15" customFormat="1">
       <c r="A231" s="14"/>
       <c r="B231" s="17"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" s="15" customFormat="1">
       <c r="A232" s="14"/>
       <c r="B232" s="17"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" s="15" customFormat="1">
       <c r="A233" s="14"/>
       <c r="B233" s="17"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" s="15" customFormat="1">
       <c r="A234" s="14"/>
       <c r="B234" s="17"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" s="15" customFormat="1">
       <c r="A235" s="14"/>
       <c r="B235" s="17"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" s="15" customFormat="1">
       <c r="A236" s="14"/>
       <c r="B236" s="17"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" s="15" customFormat="1">
       <c r="A237" s="14"/>
       <c r="B237" s="17"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" s="15" customFormat="1">
       <c r="A238" s="14"/>
       <c r="B238" s="17"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" s="15" customFormat="1">
       <c r="A239" s="14"/>
       <c r="B239" s="17"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" s="15" customFormat="1">
       <c r="A240" s="14"/>
       <c r="B240" s="17"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" s="15" customFormat="1">
       <c r="A241" s="14"/>
       <c r="B241" s="17"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" s="15" customFormat="1">
       <c r="A242" s="14"/>
       <c r="B242" s="17"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" s="15" customFormat="1">
       <c r="A243" s="14"/>
       <c r="B243" s="17"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" s="15" customFormat="1">
       <c r="A244" s="14"/>
       <c r="B244" s="17"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" s="15" customFormat="1">
       <c r="A245" s="14"/>
       <c r="B245" s="17"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" s="15" customFormat="1">
       <c r="A246" s="14"/>
       <c r="B246" s="17"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" s="15" customFormat="1">
       <c r="A247" s="14"/>
       <c r="B247" s="17"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" s="15" customFormat="1">
       <c r="A248" s="14"/>
       <c r="B248" s="17"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" s="15" customFormat="1">
       <c r="A249" s="14"/>
       <c r="B249" s="17"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" s="15" customFormat="1">
       <c r="A250" s="14"/>
       <c r="B250" s="17"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" s="15" customFormat="1">
       <c r="A251" s="14"/>
       <c r="B251" s="17"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" s="15" customFormat="1">
       <c r="A252" s="14"/>
       <c r="B252" s="17"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" s="15" customFormat="1">
       <c r="A253" s="14"/>
       <c r="B253" s="17"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" s="15" customFormat="1">
       <c r="A254" s="14"/>
       <c r="B254" s="17"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" s="15" customFormat="1">
       <c r="A255" s="14"/>
       <c r="B255" s="17"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" s="15" customFormat="1">
       <c r="A256" s="14"/>
       <c r="B256" s="17"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257" s="14"/>
       <c r="B257" s="17"/>
       <c r="C257" s="15"/>
@@ -4741,7 +4634,7 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="1.83203125" style="26" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="28" customWidth="1"/>
@@ -4749,79 +4642,79 @@
     <col min="4" max="4" width="31" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="15" customFormat="1" ht="5.25" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="17"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="24" customFormat="1" ht="21">
       <c r="A2" s="22"/>
-      <c r="B2" s="75"/>
-      <c r="D2" s="76" t="s">
+      <c r="B2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="24" customFormat="1" ht="21">
       <c r="A3" s="22"/>
-      <c r="B3" s="75"/>
-      <c r="D3" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="B3" s="56"/>
+      <c r="D3" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="14"/>
-      <c r="B4" s="75"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
+      <c r="B4" s="56"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="15" customFormat="1" ht="4.5" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="15" customFormat="1" ht="15">
       <c r="B6" s="17"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="15" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
@@ -4836,7 +4729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="15" customFormat="1">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>42</v>
@@ -4851,7 +4744,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="15" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="17" t="s">
         <v>42</v>
@@ -4866,12 +4759,12 @@
         <v>2391000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="17"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="15" customFormat="1">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
@@ -4886,7 +4779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="15" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
         <v>42</v>
@@ -4901,7 +4794,7 @@
         <v>1639000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="15" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="17" t="s">
         <v>42</v>
@@ -4916,12 +4809,12 @@
         <v>2219000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="15" customFormat="1">
       <c r="A15" s="14" t="s">
         <v>44</v>
       </c>
@@ -4936,7 +4829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="15" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
         <v>42</v>
@@ -4951,7 +4844,7 @@
         <v>1498000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="15" customFormat="1">
       <c r="A17" s="14"/>
       <c r="B17" s="17" t="s">
         <v>42</v>
@@ -4966,12 +4859,12 @@
         <v>2313000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="17"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="15" customFormat="1">
       <c r="A19" s="14" t="s">
         <v>45</v>
       </c>
@@ -4986,7 +4879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="15" customFormat="1">
       <c r="A20" s="14"/>
       <c r="B20" s="17" t="s">
         <v>42</v>
@@ -5001,7 +4894,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="15" customFormat="1">
       <c r="A21" s="14"/>
       <c r="B21" s="17" t="s">
         <v>42</v>
@@ -5016,12 +4909,12 @@
         <v>1580000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="17"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="15" customFormat="1">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -5036,7 +4929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="15" customFormat="1">
       <c r="A24" s="14"/>
       <c r="B24" s="17" t="s">
         <v>42</v>
@@ -5051,7 +4944,7 @@
         <v>719800</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="15" customFormat="1">
       <c r="A25" s="14"/>
       <c r="B25" s="17" t="s">
         <v>42</v>
@@ -5066,12 +4959,12 @@
         <v>2217000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="17"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="15" customFormat="1">
       <c r="A27" s="14" t="s">
         <v>47</v>
       </c>
@@ -5086,7 +4979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="15" customFormat="1">
       <c r="A28" s="14"/>
       <c r="B28" s="17" t="s">
         <v>42</v>
@@ -5101,7 +4994,7 @@
         <v>1464000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="15" customFormat="1">
       <c r="A29" s="14"/>
       <c r="B29" s="17" t="s">
         <v>42</v>
@@ -5116,12 +5009,12 @@
         <v>1843000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="17"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="15" customFormat="1">
       <c r="A31" s="14" t="s">
         <v>48</v>
       </c>
@@ -5136,7 +5029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="15" customFormat="1">
       <c r="A32" s="14"/>
       <c r="B32" s="17" t="s">
         <v>42</v>
@@ -5151,7 +5044,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="15" customFormat="1">
       <c r="A33" s="14"/>
       <c r="B33" s="17" t="s">
         <v>42</v>
@@ -5166,12 +5059,12 @@
         <v>930400</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="17"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="15" customFormat="1">
       <c r="A35" s="14" t="s">
         <v>49</v>
       </c>
@@ -5186,7 +5079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="15" customFormat="1">
       <c r="A36" s="14"/>
       <c r="B36" s="17" t="s">
         <v>42</v>
@@ -5201,7 +5094,7 @@
         <v>1045000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="15" customFormat="1">
       <c r="A37" s="14"/>
       <c r="B37" s="17" t="s">
         <v>42</v>
@@ -5216,12 +5109,12 @@
         <v>1355000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="14"/>
       <c r="B38" s="17"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" s="15" customFormat="1">
       <c r="A39" s="14" t="s">
         <v>50</v>
       </c>
@@ -5236,7 +5129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="15" customFormat="1">
       <c r="A40" s="14"/>
       <c r="B40" s="17" t="s">
         <v>42</v>
@@ -5251,7 +5144,7 @@
         <v>503400</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="15" customFormat="1">
       <c r="A41" s="14"/>
       <c r="B41" s="17" t="s">
         <v>42</v>
@@ -5266,12 +5159,12 @@
         <v>698800</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="14"/>
       <c r="B42" s="17"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="15" customFormat="1">
       <c r="A43" s="14" t="s">
         <v>51</v>
       </c>
@@ -5286,7 +5179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="15" customFormat="1">
       <c r="A44" s="14"/>
       <c r="B44" s="17" t="s">
         <v>42</v>
@@ -5301,7 +5194,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" s="15" customFormat="1">
       <c r="A45" s="14"/>
       <c r="B45" s="17" t="s">
         <v>42</v>
@@ -5316,12 +5209,12 @@
         <v>680200</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="14"/>
       <c r="B46" s="17"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" s="15" customFormat="1">
       <c r="A47" s="14" t="s">
         <v>52</v>
       </c>
@@ -5336,7 +5229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" s="15" customFormat="1">
       <c r="A48" s="14"/>
       <c r="B48" s="17" t="s">
         <v>42</v>
@@ -5351,7 +5244,7 @@
         <v>291400</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="15" customFormat="1">
       <c r="A49" s="14"/>
       <c r="B49" s="17" t="s">
         <v>42</v>
@@ -5366,12 +5259,12 @@
         <v>786600</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="14"/>
       <c r="B50" s="17"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="15" customFormat="1">
       <c r="A51" s="14" t="s">
         <v>53</v>
       </c>
@@ -5386,7 +5279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="15" customFormat="1">
       <c r="A52" s="14"/>
       <c r="B52" s="17" t="s">
         <v>42</v>
@@ -5401,7 +5294,7 @@
         <v>599300</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" s="15" customFormat="1">
       <c r="A53" s="14"/>
       <c r="B53" s="17" t="s">
         <v>42</v>
@@ -5416,12 +5309,12 @@
         <v>588600</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="14"/>
       <c r="B54" s="17"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" s="15" customFormat="1">
       <c r="A55" s="14" t="s">
         <v>54</v>
       </c>
@@ -5436,7 +5329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="15" customFormat="1">
       <c r="A56" s="14"/>
       <c r="B56" s="17" t="s">
         <v>42</v>
@@ -5451,7 +5344,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="15" customFormat="1">
       <c r="A57" s="14"/>
       <c r="B57" s="17" t="s">
         <v>42</v>
@@ -5466,12 +5359,12 @@
         <v>2497000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="14"/>
       <c r="B58" s="17"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" s="15" customFormat="1">
       <c r="A59" s="14" t="s">
         <v>55</v>
       </c>
@@ -5486,7 +5379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" s="15" customFormat="1">
       <c r="A60" s="14"/>
       <c r="B60" s="17" t="s">
         <v>42</v>
@@ -5501,7 +5394,7 @@
         <v>1842000</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="15" customFormat="1">
       <c r="A61" s="14"/>
       <c r="B61" s="17" t="s">
         <v>42</v>
@@ -5516,12 +5409,12 @@
         <v>2794000</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="14"/>
       <c r="B62" s="17"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="15" customFormat="1">
       <c r="A63" s="14" t="s">
         <v>56</v>
       </c>
@@ -5536,7 +5429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" s="15" customFormat="1">
       <c r="A64" s="14"/>
       <c r="B64" s="17" t="s">
         <v>42</v>
@@ -5551,7 +5444,7 @@
         <v>1308000</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" s="15" customFormat="1">
       <c r="A65" s="14"/>
       <c r="B65" s="17" t="s">
         <v>42</v>
@@ -5566,12 +5459,12 @@
         <v>2446000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="14"/>
       <c r="B66" s="17"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" s="15" customFormat="1">
       <c r="A67" s="14" t="s">
         <v>57</v>
       </c>
@@ -5586,7 +5479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" s="15" customFormat="1">
       <c r="A68" s="14"/>
       <c r="B68" s="17" t="s">
         <v>42</v>
@@ -5601,7 +5494,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" s="15" customFormat="1">
       <c r="A69" s="14"/>
       <c r="B69" s="17" t="s">
         <v>42</v>
@@ -5616,12 +5509,12 @@
         <v>1955000</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="14"/>
       <c r="B70" s="17"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" s="15" customFormat="1">
       <c r="A71" s="14" t="s">
         <v>58</v>
       </c>
@@ -5636,7 +5529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="15" customFormat="1">
       <c r="A72" s="14"/>
       <c r="B72" s="17" t="s">
         <v>42</v>
@@ -5651,7 +5544,7 @@
         <v>782500</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" s="15" customFormat="1">
       <c r="A73" s="14"/>
       <c r="B73" s="17" t="s">
         <v>42</v>
@@ -5666,12 +5559,12 @@
         <v>2471000</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="14"/>
       <c r="B74" s="17"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" s="15" customFormat="1">
       <c r="A75" s="14" t="s">
         <v>59</v>
       </c>
@@ -5686,7 +5579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" s="15" customFormat="1">
       <c r="A76" s="14"/>
       <c r="B76" s="17" t="s">
         <v>42</v>
@@ -5701,7 +5594,7 @@
         <v>1418000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" s="15" customFormat="1">
       <c r="A77" s="14"/>
       <c r="B77" s="17" t="s">
         <v>42</v>
@@ -5716,12 +5609,12 @@
         <v>1919000</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="14"/>
       <c r="B78" s="17"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" s="15" customFormat="1">
       <c r="A79" s="14" t="s">
         <v>60</v>
       </c>
@@ -5736,7 +5629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" s="15" customFormat="1">
       <c r="A80" s="14"/>
       <c r="B80" s="17" t="s">
         <v>42</v>
@@ -5751,7 +5644,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" s="15" customFormat="1">
       <c r="A81" s="14"/>
       <c r="B81" s="17" t="s">
         <v>42</v>
@@ -5766,12 +5659,12 @@
         <v>715400</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="14"/>
       <c r="B82" s="17"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" s="15" customFormat="1">
       <c r="A83" s="14" t="s">
         <v>61</v>
       </c>
@@ -5786,7 +5679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" s="15" customFormat="1">
       <c r="A84" s="14"/>
       <c r="B84" s="17" t="s">
         <v>42</v>
@@ -5801,7 +5694,7 @@
         <v>873000</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" s="15" customFormat="1">
       <c r="A85" s="14"/>
       <c r="B85" s="17" t="s">
         <v>42</v>
@@ -5816,12 +5709,12 @@
         <v>1124000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="14"/>
       <c r="B86" s="17"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" s="15" customFormat="1">
       <c r="A87" s="14" t="s">
         <v>62</v>
       </c>
@@ -5836,7 +5729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" s="15" customFormat="1">
       <c r="A88" s="14"/>
       <c r="B88" s="17" t="s">
         <v>42</v>
@@ -5851,7 +5744,7 @@
         <v>578400</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" s="15" customFormat="1">
       <c r="A89" s="14"/>
       <c r="B89" s="17" t="s">
         <v>42</v>
@@ -5866,12 +5759,12 @@
         <v>844600</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="14"/>
       <c r="B90" s="17"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" s="15" customFormat="1">
       <c r="A91" s="14" t="s">
         <v>63</v>
       </c>
@@ -5886,7 +5779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="15" customFormat="1">
       <c r="A92" s="14"/>
       <c r="B92" s="17" t="s">
         <v>42</v>
@@ -5901,7 +5794,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" s="15" customFormat="1">
       <c r="A93" s="14"/>
       <c r="B93" s="17" t="s">
         <v>42</v>
@@ -5916,12 +5809,12 @@
         <v>742700</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="14"/>
       <c r="B94" s="17"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" s="15" customFormat="1">
       <c r="A95" s="14" t="s">
         <v>64</v>
       </c>
@@ -5936,7 +5829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" s="15" customFormat="1">
       <c r="A96" s="14"/>
       <c r="B96" s="17" t="s">
         <v>42</v>
@@ -5951,7 +5844,7 @@
         <v>367100</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" s="15" customFormat="1">
       <c r="A97" s="14"/>
       <c r="B97" s="17" t="s">
         <v>42</v>
@@ -5966,12 +5859,12 @@
         <v>1017000</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="14"/>
       <c r="B98" s="17"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" s="15" customFormat="1">
       <c r="A99" s="14" t="s">
         <v>65</v>
       </c>
@@ -5986,7 +5879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" s="15" customFormat="1">
       <c r="A100" s="14"/>
       <c r="B100" s="17" t="s">
         <v>42</v>
@@ -6001,7 +5894,7 @@
         <v>497800</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" s="15" customFormat="1">
       <c r="A101" s="14"/>
       <c r="B101" s="17" t="s">
         <v>42</v>
@@ -6016,12 +5909,12 @@
         <v>532300</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="14"/>
       <c r="B102" s="17"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" s="15" customFormat="1">
       <c r="A103" s="14" t="s">
         <v>66</v>
       </c>
@@ -6036,7 +5929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" s="15" customFormat="1">
       <c r="A104" s="14"/>
       <c r="B104" s="17" t="s">
         <v>42</v>
@@ -6051,7 +5944,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" s="15" customFormat="1">
       <c r="A105" s="14"/>
       <c r="B105" s="17" t="s">
         <v>42</v>
@@ -6066,12 +5959,12 @@
         <v>2728000</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="14"/>
       <c r="B106" s="17"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" s="15" customFormat="1">
       <c r="A107" s="14" t="s">
         <v>67</v>
       </c>
@@ -6086,7 +5979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" s="15" customFormat="1">
       <c r="A108" s="14"/>
       <c r="B108" s="17" t="s">
         <v>42</v>
@@ -6101,7 +5994,7 @@
         <v>1912000</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" s="15" customFormat="1">
       <c r="A109" s="14"/>
       <c r="B109" s="17" t="s">
         <v>42</v>
@@ -6116,12 +6009,12 @@
         <v>2723000</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="14"/>
       <c r="B110" s="17"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" s="15" customFormat="1">
       <c r="A111" s="14" t="s">
         <v>68</v>
       </c>
@@ -6136,7 +6029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" s="15" customFormat="1">
       <c r="A112" s="14"/>
       <c r="B112" s="17" t="s">
         <v>42</v>
@@ -6151,7 +6044,7 @@
         <v>1353000</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" s="15" customFormat="1">
       <c r="A113" s="14"/>
       <c r="B113" s="17" t="s">
         <v>42</v>
@@ -6166,12 +6059,12 @@
         <v>2523000</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="14"/>
       <c r="B114" s="17"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" s="15" customFormat="1">
       <c r="A115" s="14" t="s">
         <v>69</v>
       </c>
@@ -6186,7 +6079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" s="15" customFormat="1">
       <c r="A116" s="14"/>
       <c r="B116" s="17" t="s">
         <v>42</v>
@@ -6201,7 +6094,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" s="15" customFormat="1">
       <c r="A117" s="14"/>
       <c r="B117" s="17" t="s">
         <v>42</v>
@@ -6216,12 +6109,12 @@
         <v>1876000</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="14"/>
       <c r="B118" s="17"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" s="15" customFormat="1">
       <c r="A119" s="14" t="s">
         <v>70</v>
       </c>
@@ -6236,7 +6129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" s="15" customFormat="1">
       <c r="A120" s="14"/>
       <c r="B120" s="17" t="s">
         <v>42</v>
@@ -6251,7 +6144,7 @@
         <v>746900</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" s="15" customFormat="1">
       <c r="A121" s="14"/>
       <c r="B121" s="17" t="s">
         <v>42</v>
@@ -6266,12 +6159,12 @@
         <v>2616000</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="14"/>
       <c r="B122" s="17"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" s="15" customFormat="1">
       <c r="A123" s="14" t="s">
         <v>71</v>
       </c>
@@ -6286,7 +6179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" s="15" customFormat="1">
       <c r="A124" s="14"/>
       <c r="B124" s="17" t="s">
         <v>42</v>
@@ -6301,7 +6194,7 @@
         <v>1720000</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" s="15" customFormat="1">
       <c r="A125" s="14"/>
       <c r="B125" s="17" t="s">
         <v>42</v>
@@ -6316,12 +6209,12 @@
         <v>1746000</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="14"/>
       <c r="B126" s="17"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" s="15" customFormat="1">
       <c r="A127" s="14" t="s">
         <v>72</v>
       </c>
@@ -6336,7 +6229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" s="15" customFormat="1">
       <c r="A128" s="14"/>
       <c r="B128" s="17" t="s">
         <v>42</v>
@@ -6351,7 +6244,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" s="15" customFormat="1">
       <c r="A129" s="14"/>
       <c r="B129" s="17" t="s">
         <v>42</v>
@@ -6366,12 +6259,12 @@
         <v>756600</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A130" s="14"/>
       <c r="B130" s="17"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" s="15" customFormat="1">
       <c r="A131" s="14" t="s">
         <v>73</v>
       </c>
@@ -6386,7 +6279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" s="15" customFormat="1">
       <c r="A132" s="14"/>
       <c r="B132" s="17" t="s">
         <v>42</v>
@@ -6401,7 +6294,7 @@
         <v>898900</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" s="15" customFormat="1">
       <c r="A133" s="14"/>
       <c r="B133" s="17" t="s">
         <v>42</v>
@@ -6416,12 +6309,12 @@
         <v>1006000</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A134" s="14"/>
       <c r="B134" s="17"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" s="15" customFormat="1">
       <c r="A135" s="14" t="s">
         <v>74</v>
       </c>
@@ -6436,7 +6329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" s="15" customFormat="1">
       <c r="A136" s="14"/>
       <c r="B136" s="17" t="s">
         <v>42</v>
@@ -6451,7 +6344,7 @@
         <v>726900</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" s="15" customFormat="1">
       <c r="A137" s="14"/>
       <c r="B137" s="17" t="s">
         <v>42</v>
@@ -6466,12 +6359,12 @@
         <v>1113000</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A138" s="14"/>
       <c r="B138" s="17"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" s="15" customFormat="1">
       <c r="A139" s="14" t="s">
         <v>75</v>
       </c>
@@ -6486,7 +6379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" s="15" customFormat="1">
       <c r="A140" s="14"/>
       <c r="B140" s="17" t="s">
         <v>42</v>
@@ -6501,7 +6394,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" s="15" customFormat="1">
       <c r="A141" s="14"/>
       <c r="B141" s="17" t="s">
         <v>42</v>
@@ -6516,12 +6409,12 @@
         <v>710300</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A142" s="14"/>
       <c r="B142" s="17"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" s="15" customFormat="1">
       <c r="A143" s="14" t="s">
         <v>76</v>
       </c>
@@ -6536,7 +6429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" s="15" customFormat="1">
       <c r="A144" s="14"/>
       <c r="B144" s="17" t="s">
         <v>42</v>
@@ -6551,7 +6444,7 @@
         <v>332500</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" s="15" customFormat="1">
       <c r="A145" s="14"/>
       <c r="B145" s="17" t="s">
         <v>42</v>
@@ -6566,12 +6459,12 @@
         <v>978500</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="14"/>
       <c r="B146" s="17"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" s="15" customFormat="1">
       <c r="A147" s="14" t="s">
         <v>77</v>
       </c>
@@ -6586,7 +6479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" s="15" customFormat="1">
       <c r="A148" s="14"/>
       <c r="B148" s="17" t="s">
         <v>42</v>
@@ -6601,7 +6494,7 @@
         <v>520100</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" s="15" customFormat="1">
       <c r="A149" s="14"/>
       <c r="B149" s="17" t="s">
         <v>42</v>
@@ -6616,12 +6509,12 @@
         <v>536000</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="14"/>
       <c r="B150" s="17"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" s="15" customFormat="1">
       <c r="A151" s="14" t="s">
         <v>78</v>
       </c>
@@ -6636,7 +6529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" s="15" customFormat="1">
       <c r="A152" s="14"/>
       <c r="B152" s="17" t="s">
         <v>42</v>
@@ -6651,7 +6544,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" s="15" customFormat="1">
       <c r="A153" s="14"/>
       <c r="B153" s="17" t="s">
         <v>42</v>
@@ -6666,12 +6559,12 @@
         <v>2420000</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="14"/>
       <c r="B154" s="17"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" s="15" customFormat="1">
       <c r="A155" s="14" t="s">
         <v>79</v>
       </c>
@@ -6686,7 +6579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" s="15" customFormat="1">
       <c r="A156" s="14"/>
       <c r="B156" s="17" t="s">
         <v>42</v>
@@ -6701,7 +6594,7 @@
         <v>1879000</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" s="15" customFormat="1">
       <c r="A157" s="14"/>
       <c r="B157" s="17" t="s">
         <v>42</v>
@@ -6716,12 +6609,12 @@
         <v>2627000</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A158" s="14"/>
       <c r="B158" s="17"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" s="15" customFormat="1">
       <c r="A159" s="14" t="s">
         <v>80</v>
       </c>
@@ -6736,7 +6629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" s="15" customFormat="1">
       <c r="A160" s="14"/>
       <c r="B160" s="17" t="s">
         <v>42</v>
@@ -6751,7 +6644,7 @@
         <v>1371000</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" s="15" customFormat="1">
       <c r="A161" s="14"/>
       <c r="B161" s="17" t="s">
         <v>42</v>
@@ -6766,12 +6659,12 @@
         <v>2336000</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A162" s="14"/>
       <c r="B162" s="17"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" s="15" customFormat="1">
       <c r="A163" s="14" t="s">
         <v>81</v>
       </c>
@@ -6786,7 +6679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" s="15" customFormat="1">
       <c r="A164" s="14"/>
       <c r="B164" s="17" t="s">
         <v>42</v>
@@ -6801,7 +6694,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" s="15" customFormat="1">
       <c r="A165" s="14"/>
       <c r="B165" s="17" t="s">
         <v>42</v>
@@ -6816,12 +6709,12 @@
         <v>1876000</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A166" s="14"/>
       <c r="B166" s="17"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" s="15" customFormat="1">
       <c r="A167" s="14" t="s">
         <v>82</v>
       </c>
@@ -6836,7 +6729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" s="15" customFormat="1">
       <c r="A168" s="14"/>
       <c r="B168" s="17" t="s">
         <v>42</v>
@@ -6851,7 +6744,7 @@
         <v>707500</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" s="15" customFormat="1">
       <c r="A169" s="14"/>
       <c r="B169" s="17" t="s">
         <v>42</v>
@@ -6866,12 +6759,12 @@
         <v>2399000</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A170" s="14"/>
       <c r="B170" s="17"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" s="15" customFormat="1">
       <c r="A171" s="14" t="s">
         <v>83</v>
       </c>
@@ -6886,7 +6779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" s="15" customFormat="1">
       <c r="A172" s="14"/>
       <c r="B172" s="17" t="s">
         <v>42</v>
@@ -6901,7 +6794,7 @@
         <v>1393000</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" s="15" customFormat="1">
       <c r="A173" s="14"/>
       <c r="B173" s="17" t="s">
         <v>42</v>
@@ -6916,12 +6809,12 @@
         <v>1836000</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A174" s="14"/>
       <c r="B174" s="17"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" s="15" customFormat="1">
       <c r="A175" s="14" t="s">
         <v>84</v>
       </c>
@@ -6936,7 +6829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" s="15" customFormat="1">
       <c r="A176" s="14"/>
       <c r="B176" s="17" t="s">
         <v>42</v>
@@ -6951,7 +6844,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" s="15" customFormat="1">
       <c r="A177" s="14"/>
       <c r="B177" s="17" t="s">
         <v>42</v>
@@ -6966,12 +6859,12 @@
         <v>980200</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="14"/>
       <c r="B178" s="17"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" s="15" customFormat="1">
       <c r="A179" s="14" t="s">
         <v>85</v>
       </c>
@@ -6986,7 +6879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" s="15" customFormat="1">
       <c r="A180" s="14"/>
       <c r="B180" s="17" t="s">
         <v>42</v>
@@ -7001,7 +6894,7 @@
         <v>1069000</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" s="15" customFormat="1">
       <c r="A181" s="14"/>
       <c r="B181" s="17" t="s">
         <v>42</v>
@@ -7016,12 +6909,12 @@
         <v>997500</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="14"/>
       <c r="B182" s="17"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" s="15" customFormat="1">
       <c r="A183" s="14" t="s">
         <v>86</v>
       </c>
@@ -7036,7 +6929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" s="15" customFormat="1">
       <c r="A184" s="14"/>
       <c r="B184" s="17" t="s">
         <v>42</v>
@@ -7051,7 +6944,7 @@
         <v>531000</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" s="15" customFormat="1">
       <c r="A185" s="14"/>
       <c r="B185" s="17" t="s">
         <v>42</v>
@@ -7066,12 +6959,12 @@
         <v>748500</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="14"/>
       <c r="B186" s="17"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" s="15" customFormat="1">
       <c r="A187" s="14" t="s">
         <v>87</v>
       </c>
@@ -7086,7 +6979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" s="15" customFormat="1">
       <c r="A188" s="14"/>
       <c r="B188" s="17" t="s">
         <v>42</v>
@@ -7101,7 +6994,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" s="15" customFormat="1">
       <c r="A189" s="14"/>
       <c r="B189" s="17" t="s">
         <v>42</v>
@@ -7116,12 +7009,12 @@
         <v>632300</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="14"/>
       <c r="B190" s="17"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" s="15" customFormat="1">
       <c r="A191" s="14" t="s">
         <v>88</v>
       </c>
@@ -7136,7 +7029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" s="15" customFormat="1">
       <c r="A192" s="14"/>
       <c r="B192" s="17" t="s">
         <v>42</v>
@@ -7151,7 +7044,7 @@
         <v>299100</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" s="15" customFormat="1">
       <c r="A193" s="14"/>
       <c r="B193" s="17" t="s">
         <v>42</v>
@@ -7166,12 +7059,12 @@
         <v>858000</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="14"/>
       <c r="B194" s="17"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" s="15" customFormat="1">
       <c r="A195" s="14" t="s">
         <v>89</v>
       </c>
@@ -7186,7 +7079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" s="15" customFormat="1">
       <c r="A196" s="14"/>
       <c r="B196" s="17" t="s">
         <v>42</v>
@@ -7201,7 +7094,7 @@
         <v>563400</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" s="15" customFormat="1">
       <c r="A197" s="14"/>
       <c r="B197" s="17" t="s">
         <v>42</v>
@@ -7216,12 +7109,12 @@
         <v>540800</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="14"/>
       <c r="B198" s="17"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" s="15" customFormat="1">
       <c r="A199" s="14" t="s">
         <v>90</v>
       </c>
@@ -7236,7 +7129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" s="15" customFormat="1">
       <c r="A200" s="14"/>
       <c r="B200" s="17" t="s">
         <v>42</v>
@@ -7251,7 +7144,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" s="15" customFormat="1">
       <c r="A201" s="14"/>
       <c r="B201" s="17" t="s">
         <v>42</v>
@@ -7266,12 +7159,12 @@
         <v>269000</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="14"/>
       <c r="B202" s="17"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" s="15" customFormat="1">
       <c r="A203" s="14" t="s">
         <v>91</v>
       </c>
@@ -7286,7 +7179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" s="15" customFormat="1">
       <c r="A204" s="14"/>
       <c r="B204" s="17" t="s">
         <v>42</v>
@@ -7301,7 +7194,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" s="15" customFormat="1">
       <c r="A205" s="14"/>
       <c r="B205" s="17" t="s">
         <v>42</v>
@@ -7316,12 +7209,12 @@
         <v>225800</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A206" s="14"/>
       <c r="B206" s="17"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" s="15" customFormat="1">
       <c r="A207" s="14" t="s">
         <v>92</v>
       </c>
@@ -7336,7 +7229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" s="15" customFormat="1">
       <c r="A208" s="14"/>
       <c r="B208" s="17" t="s">
         <v>42</v>
@@ -7351,7 +7244,7 @@
         <v>162500</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" s="15" customFormat="1">
       <c r="A209" s="14"/>
       <c r="B209" s="17" t="s">
         <v>42</v>
@@ -7366,12 +7259,12 @@
         <v>150800</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A210" s="14"/>
       <c r="B210" s="17"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" s="15" customFormat="1">
       <c r="A211" s="14" t="s">
         <v>93</v>
       </c>
@@ -7386,7 +7279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" s="15" customFormat="1">
       <c r="A212" s="14"/>
       <c r="B212" s="17" t="s">
         <v>42</v>
@@ -7401,7 +7294,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" s="15" customFormat="1">
       <c r="A213" s="14"/>
       <c r="B213" s="17" t="s">
         <v>42</v>
@@ -7416,12 +7309,12 @@
         <v>202800</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A214" s="14"/>
       <c r="B214" s="17"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" s="15" customFormat="1">
       <c r="A215" s="14" t="s">
         <v>94</v>
       </c>
@@ -7436,7 +7329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" s="15" customFormat="1">
       <c r="A216" s="14"/>
       <c r="B216" s="17" t="s">
         <v>42</v>
@@ -7451,7 +7344,7 @@
         <v>284300</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" s="15" customFormat="1">
       <c r="A217" s="14"/>
       <c r="B217" s="17" t="s">
         <v>42</v>
@@ -7466,12 +7359,12 @@
         <v>172700</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="14"/>
       <c r="B218" s="17"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" s="15" customFormat="1">
       <c r="A219" s="14" t="s">
         <v>95</v>
       </c>
@@ -7486,7 +7379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" s="15" customFormat="1">
       <c r="A220" s="14"/>
       <c r="B220" s="17" t="s">
         <v>42</v>
@@ -7501,7 +7394,7 @@
         <v>538900</v>
       </c>
     </row>
-    <row r="221" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" s="15" customFormat="1">
       <c r="A221" s="14"/>
       <c r="B221" s="17" t="s">
         <v>42</v>
@@ -7516,12 +7409,12 @@
         <v>156100</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A222" s="14"/>
       <c r="B222" s="17"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" s="15" customFormat="1">
       <c r="A223" s="14" t="s">
         <v>96</v>
       </c>
@@ -7536,7 +7429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" s="15" customFormat="1">
       <c r="A224" s="14"/>
       <c r="B224" s="17" t="s">
         <v>42</v>
@@ -7551,7 +7444,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" s="15" customFormat="1">
       <c r="A225" s="14"/>
       <c r="B225" s="17" t="s">
         <v>42</v>
@@ -7566,12 +7459,12 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A226" s="14"/>
       <c r="B226" s="17"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" s="15" customFormat="1">
       <c r="A227" s="14" t="s">
         <v>97</v>
       </c>
@@ -7586,7 +7479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" s="15" customFormat="1">
       <c r="A228" s="14"/>
       <c r="B228" s="17" t="s">
         <v>42</v>
@@ -7601,7 +7494,7 @@
         <v>74370</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" s="15" customFormat="1">
       <c r="A229" s="14"/>
       <c r="B229" s="17" t="s">
         <v>42</v>
@@ -7616,12 +7509,12 @@
         <v>179500</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A230" s="14"/>
       <c r="B230" s="17"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" s="15" customFormat="1">
       <c r="A231" s="14" t="s">
         <v>98</v>
       </c>
@@ -7636,7 +7529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" s="15" customFormat="1">
       <c r="A232" s="14"/>
       <c r="B232" s="17" t="s">
         <v>42</v>
@@ -7651,7 +7544,7 @@
         <v>129800</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" s="15" customFormat="1">
       <c r="A233" s="14"/>
       <c r="B233" s="17" t="s">
         <v>42</v>
@@ -7666,12 +7559,12 @@
         <v>145500</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A234" s="14"/>
       <c r="B234" s="17"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" s="15" customFormat="1">
       <c r="A235" s="14" t="s">
         <v>99</v>
       </c>
@@ -7686,7 +7579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" s="15" customFormat="1">
       <c r="A236" s="14"/>
       <c r="B236" s="17" t="s">
         <v>42</v>
@@ -7701,7 +7594,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" s="15" customFormat="1">
       <c r="A237" s="14"/>
       <c r="B237" s="17" t="s">
         <v>42</v>
@@ -7716,12 +7609,12 @@
         <v>159700</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A238" s="14"/>
       <c r="B238" s="17"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" s="15" customFormat="1">
       <c r="A239" s="14" t="s">
         <v>100</v>
       </c>
@@ -7736,7 +7629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" s="15" customFormat="1">
       <c r="A240" s="14"/>
       <c r="B240" s="17" t="s">
         <v>42</v>
@@ -7751,7 +7644,7 @@
         <v>240700</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" s="15" customFormat="1">
       <c r="A241" s="14"/>
       <c r="B241" s="17" t="s">
         <v>42</v>
@@ -7766,12 +7659,12 @@
         <v>142300</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A242" s="14"/>
       <c r="B242" s="17"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" s="15" customFormat="1">
       <c r="A243" s="14" t="s">
         <v>101</v>
       </c>
@@ -7786,7 +7679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" s="15" customFormat="1">
       <c r="A244" s="14"/>
       <c r="B244" s="17" t="s">
         <v>42</v>
@@ -7801,7 +7694,7 @@
         <v>457400</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" s="15" customFormat="1">
       <c r="A245" s="14"/>
       <c r="B245" s="17" t="s">
         <v>42</v>
@@ -7816,12 +7709,12 @@
         <v>117700</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A246" s="14"/>
       <c r="B246" s="17"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" s="15" customFormat="1">
       <c r="A247" s="14" t="s">
         <v>102</v>
       </c>
@@ -7836,7 +7729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" s="15" customFormat="1">
       <c r="A248" s="14"/>
       <c r="B248" s="17" t="s">
         <v>42</v>
@@ -7851,7 +7744,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" s="15" customFormat="1">
       <c r="A249" s="14"/>
       <c r="B249" s="17" t="s">
         <v>42</v>
@@ -7866,12 +7759,12 @@
         <v>248300</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A250" s="14"/>
       <c r="B250" s="17"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" s="15" customFormat="1">
       <c r="A251" s="14" t="s">
         <v>103</v>
       </c>
@@ -7886,7 +7779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" s="15" customFormat="1">
       <c r="A252" s="14"/>
       <c r="B252" s="17" t="s">
         <v>42</v>
@@ -7901,7 +7794,7 @@
         <v>84630</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" s="15" customFormat="1">
       <c r="A253" s="14"/>
       <c r="B253" s="17" t="s">
         <v>42</v>
@@ -7916,12 +7809,12 @@
         <v>214300</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A254" s="14"/>
       <c r="B254" s="17"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" s="15" customFormat="1">
       <c r="A255" s="14" t="s">
         <v>104</v>
       </c>
@@ -7936,7 +7829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" s="15" customFormat="1">
       <c r="A256" s="14"/>
       <c r="B256" s="17" t="s">
         <v>42</v>
@@ -7951,7 +7844,7 @@
         <v>143300</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6">
       <c r="A257" s="14"/>
       <c r="B257" s="17" t="s">
         <v>42</v>
@@ -7967,8 +7860,8 @@
         <v>136100</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="15" customHeight="1"/>
+    <row r="259" spans="1:6">
       <c r="A259" s="26" t="s">
         <v>105</v>
       </c>
@@ -7982,7 +7875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6">
       <c r="B260" s="28" t="s">
         <v>42</v>
       </c>
@@ -7996,7 +7889,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6">
       <c r="B261" s="28" t="s">
         <v>42</v>
       </c>
@@ -8010,8 +7903,8 @@
         <v>193600</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="15" customHeight="1"/>
+    <row r="263" spans="1:6">
       <c r="A263" s="26" t="s">
         <v>106</v>
       </c>
@@ -8025,7 +7918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6">
       <c r="B264" s="28" t="s">
         <v>42</v>
       </c>
@@ -8039,7 +7932,7 @@
         <v>270700</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6">
       <c r="B265" s="28" t="s">
         <v>42</v>
       </c>
@@ -8053,8 +7946,8 @@
         <v>176800</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="15" customHeight="1"/>
+    <row r="267" spans="1:6">
       <c r="A267" s="26" t="s">
         <v>107</v>
       </c>
@@ -8068,7 +7961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6">
       <c r="B268" s="28" t="s">
         <v>42</v>
       </c>
@@ -8082,7 +7975,7 @@
         <v>552000</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6">
       <c r="B269" s="28" t="s">
         <v>42</v>
       </c>
@@ -8096,8 +7989,8 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="15" customHeight="1"/>
+    <row r="271" spans="1:6">
       <c r="A271" s="26" t="s">
         <v>108</v>
       </c>
@@ -8111,7 +8004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6">
       <c r="B272" s="28" t="s">
         <v>42</v>
       </c>
@@ -8125,7 +8018,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6">
       <c r="B273" s="28" t="s">
         <v>42</v>
       </c>
@@ -8139,8 +8032,8 @@
         <v>217500</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="15" customHeight="1"/>
+    <row r="275" spans="1:6">
       <c r="A275" s="26" t="s">
         <v>109</v>
       </c>
@@ -8154,7 +8047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6">
       <c r="B276" s="28" t="s">
         <v>42</v>
       </c>
@@ -8168,7 +8061,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6">
       <c r="B277" s="28" t="s">
         <v>42</v>
       </c>
@@ -8182,8 +8075,8 @@
         <v>134600</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="15" customHeight="1"/>
+    <row r="279" spans="1:6">
       <c r="A279" s="26" t="s">
         <v>110</v>
       </c>
@@ -8197,7 +8090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6">
       <c r="B280" s="28" t="s">
         <v>42</v>
       </c>
@@ -8211,7 +8104,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6">
       <c r="B281" s="28" t="s">
         <v>42</v>
       </c>
@@ -8225,8 +8118,8 @@
         <v>120700</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="15" customHeight="1"/>
+    <row r="283" spans="1:6">
       <c r="A283" s="26" t="s">
         <v>111</v>
       </c>
@@ -8240,7 +8133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6">
       <c r="B284" s="28" t="s">
         <v>42</v>
       </c>
@@ -8254,7 +8147,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6">
       <c r="B285" s="28" t="s">
         <v>42</v>
       </c>
@@ -8268,8 +8161,8 @@
         <v>160700</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="15" customHeight="1"/>
+    <row r="287" spans="1:6">
       <c r="A287" s="26" t="s">
         <v>112</v>
       </c>
@@ -8283,7 +8176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6">
       <c r="B288" s="28" t="s">
         <v>42</v>
       </c>
@@ -8297,7 +8190,7 @@
         <v>233900</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6">
       <c r="B289" s="28" t="s">
         <v>42</v>
       </c>
@@ -8311,8 +8204,8 @@
         <v>139500</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="15" customHeight="1"/>
+    <row r="291" spans="1:6">
       <c r="A291" s="26" t="s">
         <v>113</v>
       </c>
@@ -8326,7 +8219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6">
       <c r="B292" s="28" t="s">
         <v>42</v>
       </c>
@@ -8340,7 +8233,7 @@
         <v>489300</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6">
       <c r="B293" s="28" t="s">
         <v>42</v>
       </c>
@@ -8354,8 +8247,8 @@
         <v>151800</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="15" customHeight="1"/>
+    <row r="295" spans="1:6">
       <c r="A295" s="26" t="s">
         <v>114</v>
       </c>
@@ -8369,7 +8262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6">
       <c r="B296" s="28" t="s">
         <v>42</v>
       </c>
@@ -8383,7 +8276,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6">
       <c r="B297" s="28" t="s">
         <v>42</v>
       </c>
@@ -8397,8 +8290,8 @@
         <v>262900</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="15" customHeight="1"/>
+    <row r="299" spans="1:6">
       <c r="A299" s="26" t="s">
         <v>115</v>
       </c>
@@ -8412,7 +8305,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6">
       <c r="B300" s="28" t="s">
         <v>42</v>
       </c>
@@ -8426,7 +8319,7 @@
         <v>91160</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6">
       <c r="B301" s="28" t="s">
         <v>42</v>
       </c>
@@ -8440,8 +8333,8 @@
         <v>192200</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="15" customHeight="1"/>
+    <row r="303" spans="1:6">
       <c r="A303" s="26" t="s">
         <v>116</v>
       </c>
@@ -8455,7 +8348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6">
       <c r="B304" s="28" t="s">
         <v>42</v>
       </c>
@@ -8469,7 +8362,7 @@
         <v>147400</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6">
       <c r="B305" s="28" t="s">
         <v>42</v>
       </c>
@@ -8483,8 +8376,8 @@
         <v>154200</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="15" customHeight="1"/>
+    <row r="307" spans="1:6">
       <c r="A307" s="26" t="s">
         <v>117</v>
       </c>
@@ -8498,7 +8391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6">
       <c r="B308" s="28" t="s">
         <v>42</v>
       </c>
@@ -8512,7 +8405,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6">
       <c r="B309" s="28" t="s">
         <v>42</v>
       </c>
@@ -8526,8 +8419,8 @@
         <v>187900</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="15" customHeight="1"/>
+    <row r="311" spans="1:6">
       <c r="A311" s="26" t="s">
         <v>118</v>
       </c>
@@ -8541,7 +8434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6">
       <c r="B312" s="28" t="s">
         <v>42</v>
       </c>
@@ -8555,7 +8448,7 @@
         <v>250800</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6">
       <c r="B313" s="28" t="s">
         <v>42</v>
       </c>
@@ -8569,8 +8462,8 @@
         <v>154900</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="15" customHeight="1"/>
+    <row r="315" spans="1:6">
       <c r="A315" s="26" t="s">
         <v>119</v>
       </c>
@@ -8584,7 +8477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6">
       <c r="B316" s="28" t="s">
         <v>42</v>
       </c>
@@ -8598,7 +8491,7 @@
         <v>529400</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6">
       <c r="B317" s="28" t="s">
         <v>42</v>
       </c>
@@ -8612,8 +8505,8 @@
         <v>156500</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="15" customHeight="1"/>
+    <row r="319" spans="1:6">
       <c r="A319" s="26" t="s">
         <v>120</v>
       </c>
@@ -8627,7 +8520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6">
       <c r="B320" s="28" t="s">
         <v>42</v>
       </c>
@@ -8641,7 +8534,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6">
       <c r="B321" s="28" t="s">
         <v>42</v>
       </c>
@@ -8655,8 +8548,8 @@
         <v>210100</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="15" customHeight="1"/>
+    <row r="323" spans="1:6">
       <c r="A323" s="26" t="s">
         <v>121</v>
       </c>
@@ -8670,7 +8563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6">
       <c r="B324" s="28" t="s">
         <v>42</v>
       </c>
@@ -8684,7 +8577,7 @@
         <v>63310</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6">
       <c r="B325" s="28" t="s">
         <v>42</v>
       </c>
@@ -8698,8 +8591,8 @@
         <v>159600</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="15" customHeight="1"/>
+    <row r="327" spans="1:6">
       <c r="A327" s="26" t="s">
         <v>122</v>
       </c>
@@ -8713,7 +8606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6">
       <c r="B328" s="28" t="s">
         <v>42</v>
       </c>
@@ -8727,7 +8620,7 @@
         <v>120500</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6">
       <c r="B329" s="28" t="s">
         <v>42</v>
       </c>
@@ -8741,8 +8634,8 @@
         <v>134200</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="15" customHeight="1"/>
+    <row r="331" spans="1:6">
       <c r="A331" s="26" t="s">
         <v>123</v>
       </c>
@@ -8756,7 +8649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6">
       <c r="B332" s="28" t="s">
         <v>42</v>
       </c>
@@ -8770,7 +8663,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6">
       <c r="B333" s="28" t="s">
         <v>42</v>
       </c>
@@ -8784,8 +8677,8 @@
         <v>161700</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="15" customHeight="1"/>
+    <row r="335" spans="1:6">
       <c r="A335" s="26" t="s">
         <v>124</v>
       </c>
@@ -8799,7 +8692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6">
       <c r="B336" s="28" t="s">
         <v>42</v>
       </c>
@@ -8813,7 +8706,7 @@
         <v>135800</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6">
       <c r="B337" s="28" t="s">
         <v>42</v>
       </c>
@@ -8827,8 +8720,8 @@
         <v>93560</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="15" customHeight="1"/>
+    <row r="339" spans="1:6">
       <c r="A339" s="26" t="s">
         <v>125</v>
       </c>
@@ -8842,7 +8735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6">
       <c r="B340" s="28" t="s">
         <v>42</v>
       </c>
@@ -8856,7 +8749,7 @@
         <v>439500</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6">
       <c r="B341" s="28" t="s">
         <v>42</v>
       </c>
@@ -8870,8 +8763,8 @@
         <v>130500</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="15" customHeight="1"/>
+    <row r="343" spans="1:6">
       <c r="A343" s="26" t="s">
         <v>126</v>
       </c>
@@ -8885,7 +8778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6">
       <c r="B344" s="28" t="s">
         <v>42</v>
       </c>
@@ -8899,7 +8792,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6">
       <c r="B345" s="28" t="s">
         <v>42</v>
       </c>
@@ -8913,8 +8806,8 @@
         <v>236100</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" ht="15" customHeight="1"/>
+    <row r="347" spans="1:6">
       <c r="A347" s="26" t="s">
         <v>127</v>
       </c>
@@ -8928,7 +8821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6">
       <c r="B348" s="28" t="s">
         <v>42</v>
       </c>
@@ -8942,7 +8835,7 @@
         <v>97280</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6">
       <c r="B349" s="28" t="s">
         <v>42</v>
       </c>
@@ -8956,8 +8849,8 @@
         <v>221700</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="15" customHeight="1"/>
+    <row r="351" spans="1:6">
       <c r="A351" s="26" t="s">
         <v>128</v>
       </c>
@@ -8971,7 +8864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6">
       <c r="B352" s="28" t="s">
         <v>42</v>
       </c>
@@ -8985,7 +8878,7 @@
         <v>160400</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6">
       <c r="B353" s="28" t="s">
         <v>42</v>
       </c>
@@ -8999,8 +8892,8 @@
         <v>169100</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="15" customHeight="1"/>
+    <row r="355" spans="1:6">
       <c r="A355" s="26" t="s">
         <v>129</v>
       </c>
@@ -9014,7 +8907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6">
       <c r="B356" s="28" t="s">
         <v>42</v>
       </c>
@@ -9028,7 +8921,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6">
       <c r="B357" s="28" t="s">
         <v>42</v>
       </c>
@@ -9042,8 +8935,8 @@
         <v>208500</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="15" customHeight="1"/>
+    <row r="359" spans="1:6">
       <c r="A359" s="26" t="s">
         <v>130</v>
       </c>
@@ -9057,7 +8950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6">
       <c r="B360" s="28" t="s">
         <v>42</v>
       </c>
@@ -9071,7 +8964,7 @@
         <v>265700</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6">
       <c r="B361" s="28" t="s">
         <v>42</v>
       </c>
@@ -9085,8 +8978,8 @@
         <v>180700</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="15" customHeight="1"/>
+    <row r="363" spans="1:6">
       <c r="A363" s="26" t="s">
         <v>131</v>
       </c>
@@ -9100,7 +8993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6">
       <c r="B364" s="28" t="s">
         <v>42</v>
       </c>
@@ -9114,7 +9007,7 @@
         <v>495900</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6">
       <c r="B365" s="28" t="s">
         <v>42</v>
       </c>
@@ -9128,8 +9021,8 @@
         <v>162800</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="15" customHeight="1"/>
+    <row r="367" spans="1:6">
       <c r="A367" s="26" t="s">
         <v>132</v>
       </c>
@@ -9143,7 +9036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6">
       <c r="B368" s="28" t="s">
         <v>42</v>
       </c>
@@ -9157,7 +9050,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6">
       <c r="B369" s="28" t="s">
         <v>42</v>
       </c>
@@ -9171,8 +9064,8 @@
         <v>205500</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="15" customHeight="1"/>
+    <row r="371" spans="1:6">
       <c r="A371" s="26" t="s">
         <v>133</v>
       </c>
@@ -9186,7 +9079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6">
       <c r="B372" s="28" t="s">
         <v>42</v>
       </c>
@@ -9200,7 +9093,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6">
       <c r="B373" s="28" t="s">
         <v>42</v>
       </c>
@@ -9214,8 +9107,8 @@
         <v>167500</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" ht="15" customHeight="1"/>
+    <row r="375" spans="1:6">
       <c r="A375" s="26" t="s">
         <v>134</v>
       </c>
@@ -9229,7 +9122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6">
       <c r="B376" s="28" t="s">
         <v>42</v>
       </c>
@@ -9243,7 +9136,7 @@
         <v>128200</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6">
       <c r="B377" s="28" t="s">
         <v>42</v>
       </c>
@@ -9257,8 +9150,8 @@
         <v>133100</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="15" customHeight="1"/>
+    <row r="379" spans="1:6">
       <c r="A379" s="26" t="s">
         <v>135</v>
       </c>
@@ -9272,7 +9165,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6">
       <c r="B380" s="28" t="s">
         <v>42</v>
       </c>
@@ -9286,7 +9179,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6">
       <c r="B381" s="28" t="s">
         <v>42</v>
       </c>
@@ -9300,8 +9193,8 @@
         <v>178800</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="15" customHeight="1"/>
+    <row r="383" spans="1:6">
       <c r="A383" s="26" t="s">
         <v>136</v>
       </c>
@@ -9315,7 +9208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6">
       <c r="B384" s="28" t="s">
         <v>42</v>
       </c>
@@ -9329,7 +9222,7 @@
         <v>235100</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6">
       <c r="B385" s="28" t="s">
         <v>42</v>
       </c>
@@ -9343,8 +9236,8 @@
         <v>135100</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" ht="15" customHeight="1"/>
+    <row r="387" spans="1:6">
       <c r="A387" s="26" t="s">
         <v>137</v>
       </c>
@@ -9358,7 +9251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6">
       <c r="B388" s="28" t="s">
         <v>42</v>
       </c>
@@ -9372,7 +9265,7 @@
         <v>478200</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6">
       <c r="B389" s="28" t="s">
         <v>42</v>
       </c>
@@ -9386,7 +9279,7 @@
         <v>137300</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" spans="1:6" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B4"/>
@@ -9398,286 +9291,4 @@
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="66">
-        <v>1818</v>
-      </c>
-      <c r="B2" s="67">
-        <v>1639000</v>
-      </c>
-      <c r="C2" s="56">
-        <v>1498000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="66">
-        <v>4210</v>
-      </c>
-      <c r="B3" s="68">
-        <v>1842000</v>
-      </c>
-      <c r="C3" s="69">
-        <v>1308000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="66">
-        <v>1824</v>
-      </c>
-      <c r="B4" s="59">
-        <v>1912000</v>
-      </c>
-      <c r="C4" s="70">
-        <v>1353000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="66">
-        <v>1426</v>
-      </c>
-      <c r="B5" s="71">
-        <v>1879000</v>
-      </c>
-      <c r="C5" s="72">
-        <v>1371000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="55">
-        <v>2391000</v>
-      </c>
-      <c r="B2" s="56">
-        <v>2219000</v>
-      </c>
-      <c r="C2" s="57">
-        <v>2313000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="58">
-        <v>2497000</v>
-      </c>
-      <c r="B3" s="59">
-        <v>2794000</v>
-      </c>
-      <c r="C3" s="60">
-        <v>2446000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="61">
-        <v>2728000</v>
-      </c>
-      <c r="B4" s="61">
-        <v>2723000</v>
-      </c>
-      <c r="C4" s="62">
-        <v>2523000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="63">
-        <v>2420000</v>
-      </c>
-      <c r="B5" s="64">
-        <v>2627000</v>
-      </c>
-      <c r="C5" s="65">
-        <v>2336000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3D96C1-0DE2-2642-AA56-63F0890F6181}">
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="13" width="8.1640625" style="74" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="K1" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="74" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="74" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>